--- a/excelLineup.xlsx
+++ b/excelLineup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Lineup_Index</t>
   </si>
@@ -59,6 +59,27 @@
     <t>LO_Linup_Index</t>
   </si>
   <si>
+    <t>XIFsw</t>
+  </si>
+  <si>
+    <t>FW.g_calib_if_gain_txrx_target</t>
+  </si>
+  <si>
+    <t>MSC_table</t>
+  </si>
+  <si>
+    <t>SilenceDuration</t>
+  </si>
+  <si>
+    <t>PacketLengthPayload</t>
+  </si>
+  <si>
+    <t>Power_Sweep_Table</t>
+  </si>
+  <si>
+    <t>tx_gain_row</t>
+  </si>
+  <si>
     <t>lo_mixer_ctrl</t>
   </si>
   <si>
@@ -68,58 +89,43 @@
     <t>lo_xif_ctrl</t>
   </si>
   <si>
-    <t>Pin_Start</t>
-  </si>
-  <si>
-    <t>Pin_Stop</t>
-  </si>
-  <si>
-    <t>Pin_Delta</t>
-  </si>
-  <si>
-    <t>MSC_table</t>
-  </si>
-  <si>
-    <t>SilenceDuration</t>
-  </si>
-  <si>
-    <t>PacketLengthPayload</t>
-  </si>
-  <si>
-    <t>ifrx_comm_gain_val</t>
-  </si>
-  <si>
-    <t>ifrx_comm1_val</t>
-  </si>
-  <si>
-    <t>ifrx_comm2_val</t>
-  </si>
-  <si>
-    <t>ifrx_comm3_val</t>
-  </si>
-  <si>
-    <t>ifmux_gain_val</t>
-  </si>
-  <si>
-    <t>ifmux_stg1_val</t>
-  </si>
-  <si>
-    <t>ifmux_stg2_val</t>
-  </si>
-  <si>
-    <t>ifmux_stg3_val</t>
-  </si>
-  <si>
-    <t>rx_bypass_en</t>
+    <t>tx_bypass_en</t>
+  </si>
+  <si>
+    <t>iftx_ctrl1_val</t>
+  </si>
+  <si>
+    <t>iftx_ctrl2_val</t>
+  </si>
+  <si>
+    <t>iftx_ctrl3_val</t>
+  </si>
+  <si>
+    <t>iftx_gain</t>
+  </si>
+  <si>
+    <t>iftx_stg1_val</t>
+  </si>
+  <si>
+    <t>iftx_stg2_val</t>
+  </si>
+  <si>
+    <t>iftx_stg3_val</t>
+  </si>
+  <si>
+    <t>if_mux_gain_val</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
+    <t>"11111111"</t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>force mode_8dB_E</t>
+    <t>Psat-MB</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +472,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +572,11 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -584,91 +593,94 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>1</v>
+      <c r="O2" t="s">
+        <v>34</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R2">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S2">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V2">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
       </c>
       <c r="Z2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE2">
-        <v>2</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF2">
+        <v>15</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>2</v>
       </c>
@@ -679,97 +691,100 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>1</v>
+      <c r="O3" t="s">
+        <v>34</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S3">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
       </c>
       <c r="Z3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE3">
-        <v>2</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF3">
+        <v>15</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>3</v>
       </c>
@@ -780,97 +795,100 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>1</v>
+      <c r="O4" t="s">
+        <v>34</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S4">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V4">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
       </c>
       <c r="Z4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE4">
-        <v>2</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF4">
+        <v>15</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>4</v>
       </c>
@@ -881,97 +899,100 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5">
-        <v>1</v>
+      <c r="O5" t="s">
+        <v>34</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S5">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V5">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>35</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE5">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF5">
+        <v>15</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>5</v>
       </c>
@@ -982,97 +1003,100 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6">
-        <v>1</v>
+      <c r="O6" t="s">
+        <v>34</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S6">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V6">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
       </c>
       <c r="Z6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE6">
-        <v>2</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF6">
+        <v>15</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1083,97 +1107,100 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7">
-        <v>1</v>
+      <c r="O7" t="s">
+        <v>34</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S7">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V7">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
       </c>
       <c r="Z7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE7">
-        <v>2</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF7">
+        <v>15</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1184,97 +1211,100 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>1</v>
+      <c r="O8" t="s">
+        <v>34</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R8">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S8">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V8">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>35</v>
       </c>
       <c r="Z8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE8">
-        <v>2</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF8">
+        <v>15</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1285,28 +1315,28 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1317,171 +1347,177 @@
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9">
-        <v>1</v>
+      <c r="O9" t="s">
+        <v>34</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S9">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V9">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE9">
-        <v>2</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF9">
+        <v>15</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10">
-        <v>1</v>
+      <c r="O10" t="s">
+        <v>34</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S10">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V10">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>2</v>
-      </c>
-      <c r="Y10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>35</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF10">
+        <v>15</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1490,735 +1526,756 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11">
-        <v>1</v>
+      <c r="O11" t="s">
+        <v>34</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R11">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S11">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V11">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>35</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF11">
+        <v>15</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12">
-        <v>1</v>
+      <c r="O12" t="s">
+        <v>34</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R12">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S12">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U12">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V12">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF12">
+        <v>15</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13">
-        <v>1</v>
+      <c r="O13" t="s">
+        <v>34</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R13">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S13">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V13">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>35</v>
       </c>
       <c r="Z13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF13">
+        <v>15</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14">
-        <v>1</v>
+      <c r="O14" t="s">
+        <v>34</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R14">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S14">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V14">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>2</v>
-      </c>
-      <c r="Y14">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>35</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF14">
+        <v>15</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15">
-        <v>1</v>
+      <c r="O15" t="s">
+        <v>34</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S15">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V15">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>35</v>
       </c>
       <c r="Z15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF15">
+        <v>15</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16">
-        <v>1</v>
+      <c r="O16" t="s">
+        <v>34</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S16">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U16">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V16">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>2</v>
-      </c>
-      <c r="Y16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>35</v>
       </c>
       <c r="Z16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF16">
+        <v>15</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:34">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17">
-        <v>1</v>
+      <c r="O17" t="s">
+        <v>34</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S17">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V17">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>2</v>
-      </c>
-      <c r="Y17">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>35</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA17">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF17">
+        <v>15</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:34">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2226,171 +2283,177 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18">
-        <v>1</v>
+      <c r="O18" t="s">
+        <v>34</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R18">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S18">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V18">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>35</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE18">
-        <v>9</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF18">
+        <v>15</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:34">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19">
-        <v>1</v>
+      <c r="O19" t="s">
+        <v>34</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S19">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V19">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>35</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE19">
-        <v>9</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF19">
+        <v>15</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:34">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -2399,230 +2462,236 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20">
-        <v>1</v>
+      <c r="O20" t="s">
+        <v>34</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S20">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V20">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>35</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE20">
-        <v>9</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF20">
+        <v>15</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:34">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21">
-        <v>1</v>
+      <c r="O21" t="s">
+        <v>34</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S21">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U21">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V21">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>35</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA21">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE21">
-        <v>9</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF21">
+        <v>15</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:34">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>4</v>
@@ -2630,365 +2699,689 @@
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22">
-        <v>1</v>
+      <c r="O22" t="s">
+        <v>34</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R22">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S22">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V22">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>35</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE22">
-        <v>9</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF22">
+        <v>15</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:34">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
-      <c r="O23">
-        <v>1</v>
+      <c r="O23" t="s">
+        <v>34</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R23">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S23">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U23">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V23">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>35</v>
       </c>
       <c r="Z23">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA23">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE23">
-        <v>9</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF23">
+        <v>15</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:34">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24">
-        <v>1</v>
+      <c r="O24" t="s">
+        <v>34</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S24">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U24">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V24">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>35</v>
       </c>
       <c r="Z24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE24">
-        <v>9</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="AF24">
+        <v>15</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:34">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25">
-        <v>1</v>
+      <c r="O25" t="s">
+        <v>34</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="S25">
-        <v>-5</v>
+        <v>1000</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U25">
+        <v>17</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+      <c r="AA25">
+        <v>15</v>
+      </c>
+      <c r="AB25">
+        <v>15</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>15</v>
+      </c>
+      <c r="AE25">
+        <v>15</v>
+      </c>
+      <c r="AF25">
+        <v>15</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>12</v>
       </c>
-      <c r="V25">
-        <v>80</v>
-      </c>
-      <c r="W25">
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26">
+        <v>43</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>70</v>
+      </c>
+      <c r="S26">
         <v>1000</v>
       </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>3</v>
-      </c>
-      <c r="Z25">
-        <v>3</v>
-      </c>
-      <c r="AA25">
-        <v>3</v>
-      </c>
-      <c r="AB25">
-        <v>2</v>
-      </c>
-      <c r="AC25">
+      <c r="T26">
+        <v>30</v>
+      </c>
+      <c r="U26">
+        <v>17</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26">
+        <v>15</v>
+      </c>
+      <c r="AA26">
+        <v>15</v>
+      </c>
+      <c r="AB26">
+        <v>15</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>15</v>
+      </c>
+      <c r="AE26">
+        <v>15</v>
+      </c>
+      <c r="AF26">
+        <v>15</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
         <v>9</v>
       </c>
-      <c r="AD25">
-        <v>9</v>
-      </c>
-      <c r="AE25">
-        <v>9</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG25" t="s">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
         <v>34</v>
+      </c>
+      <c r="P27">
+        <v>43</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>70</v>
+      </c>
+      <c r="S27">
+        <v>1000</v>
+      </c>
+      <c r="T27">
+        <v>30</v>
+      </c>
+      <c r="U27">
+        <v>17</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27">
+        <v>15</v>
+      </c>
+      <c r="AA27">
+        <v>15</v>
+      </c>
+      <c r="AB27">
+        <v>15</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>15</v>
+      </c>
+      <c r="AE27">
+        <v>15</v>
+      </c>
+      <c r="AF27">
+        <v>15</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28">
+        <v>43</v>
+      </c>
+      <c r="Q28">
+        <v>8</v>
+      </c>
+      <c r="R28">
+        <v>70</v>
+      </c>
+      <c r="S28">
+        <v>1000</v>
+      </c>
+      <c r="T28">
+        <v>30</v>
+      </c>
+      <c r="U28">
+        <v>17</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z28">
+        <v>15</v>
+      </c>
+      <c r="AA28">
+        <v>15</v>
+      </c>
+      <c r="AB28">
+        <v>15</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>15</v>
+      </c>
+      <c r="AE28">
+        <v>15</v>
+      </c>
+      <c r="AF28">
+        <v>15</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/excelLineup.xlsx
+++ b/excelLineup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Lineup_Index</t>
   </si>
@@ -56,6 +56,9 @@
     <t>XIF_Matrix</t>
   </si>
   <si>
+    <t>LO_Linup_Index</t>
+  </si>
+  <si>
     <t>XIFsw</t>
   </si>
   <si>
@@ -71,16 +74,10 @@
     <t>PacketLengthPayload</t>
   </si>
   <si>
-    <t>Dac_fssel_val</t>
-  </si>
-  <si>
-    <t>dig_atten</t>
+    <t>Power_Sweep_Table</t>
   </si>
   <si>
     <t>tx_gain_row</t>
-  </si>
-  <si>
-    <t>LO_Linup_Index</t>
   </si>
   <si>
     <t>lo_mixer_ctrl</t>
@@ -128,7 +125,16 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>Ifcommon new3 direct</t>
+    <t>PORT A</t>
+  </si>
+  <si>
+    <t>PORT B</t>
+  </si>
+  <si>
+    <t>PORT D</t>
+  </si>
+  <si>
+    <t>PORT C</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +481,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,70 +584,67 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-30</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2">
+      <c r="P2">
         <v>43</v>
       </c>
-      <c r="P2">
-        <v>12</v>
-      </c>
       <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
         <v>70</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1000</v>
       </c>
-      <c r="S2">
-        <v>10</v>
-      </c>
       <c r="T2">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U2">
         <v>17</v>
@@ -653,54 +656,51 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2">
+        <v>6</v>
+      </c>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2" t="s">
         <v>36</v>
       </c>
-      <c r="AA2">
-        <v>6</v>
-      </c>
-      <c r="AB2">
-        <v>6</v>
-      </c>
-      <c r="AC2">
-        <v>6</v>
-      </c>
-      <c r="AD2">
-        <v>2</v>
-      </c>
-      <c r="AE2">
-        <v>5</v>
-      </c>
-      <c r="AF2">
-        <v>5</v>
-      </c>
-      <c r="AG2">
-        <v>5</v>
-      </c>
-      <c r="AH2">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -729,26 +729,26 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3">
         <v>43</v>
       </c>
-      <c r="P3">
-        <v>12</v>
-      </c>
       <c r="Q3">
+        <v>12</v>
+      </c>
+      <c r="R3">
         <v>70</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1000</v>
       </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
       <c r="T3">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U3">
         <v>17</v>
@@ -760,54 +760,51 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="s">
         <v>36</v>
       </c>
-      <c r="AA3">
-        <v>6</v>
-      </c>
-      <c r="AB3">
-        <v>6</v>
-      </c>
-      <c r="AC3">
-        <v>6</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>5</v>
-      </c>
-      <c r="AF3">
-        <v>5</v>
-      </c>
-      <c r="AG3">
-        <v>5</v>
-      </c>
-      <c r="AH3">
-        <v>2</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -836,26 +833,26 @@
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4">
         <v>43</v>
       </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
       <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
         <v>70</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1000</v>
       </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
       <c r="T4">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U4">
         <v>17</v>
@@ -867,54 +864,51 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4" t="s">
         <v>36</v>
       </c>
-      <c r="AA4">
-        <v>6</v>
-      </c>
-      <c r="AB4">
-        <v>6</v>
-      </c>
-      <c r="AC4">
-        <v>6</v>
-      </c>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4">
-        <v>5</v>
-      </c>
-      <c r="AF4">
-        <v>5</v>
-      </c>
-      <c r="AG4">
-        <v>5</v>
-      </c>
-      <c r="AH4">
-        <v>2</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -941,28 +935,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5">
         <v>43</v>
       </c>
-      <c r="P5">
-        <v>12</v>
-      </c>
       <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
         <v>70</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1000</v>
       </c>
-      <c r="S5">
-        <v>10</v>
-      </c>
       <c r="T5">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U5">
         <v>17</v>
@@ -974,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
       </c>
       <c r="AA5">
         <v>6</v>
@@ -989,10 +983,10 @@
         <v>6</v>
       </c>
       <c r="AC5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE5">
         <v>5</v>
@@ -1001,27 +995,24 @@
         <v>5</v>
       </c>
       <c r="AG5">
-        <v>5</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
-      </c>
-      <c r="AI5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1048,28 +1039,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6">
         <v>43</v>
       </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
       <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
         <v>70</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1000</v>
       </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
       <c r="T6">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U6">
         <v>17</v>
@@ -1081,13 +1072,13 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
       </c>
       <c r="AA6">
         <v>6</v>
@@ -1096,10 +1087,10 @@
         <v>6</v>
       </c>
       <c r="AC6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE6">
         <v>5</v>
@@ -1108,27 +1099,24 @@
         <v>5</v>
       </c>
       <c r="AG6">
-        <v>5</v>
-      </c>
-      <c r="AH6">
-        <v>2</v>
-      </c>
-      <c r="AI6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1155,28 +1143,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7">
         <v>43</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>14</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>70</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1000</v>
       </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
       <c r="T7">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U7">
         <v>17</v>
@@ -1188,13 +1176,13 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
       </c>
       <c r="AA7">
         <v>6</v>
@@ -1203,10 +1191,10 @@
         <v>6</v>
       </c>
       <c r="AC7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE7">
         <v>5</v>
@@ -1215,27 +1203,24 @@
         <v>5</v>
       </c>
       <c r="AG7">
-        <v>5</v>
-      </c>
-      <c r="AH7">
-        <v>2</v>
-      </c>
-      <c r="AI7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1262,28 +1247,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8">
         <v>43</v>
       </c>
-      <c r="P8">
-        <v>14</v>
-      </c>
       <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8">
         <v>70</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1000</v>
       </c>
-      <c r="S8">
-        <v>10</v>
-      </c>
       <c r="T8">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U8">
         <v>17</v>
@@ -1295,13 +1280,13 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
       </c>
       <c r="AA8">
         <v>6</v>
@@ -1310,10 +1295,10 @@
         <v>6</v>
       </c>
       <c r="AC8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE8">
         <v>5</v>
@@ -1322,27 +1307,24 @@
         <v>5</v>
       </c>
       <c r="AG8">
-        <v>5</v>
-      </c>
-      <c r="AH8">
-        <v>2</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1369,28 +1351,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9">
         <v>43</v>
       </c>
-      <c r="P9">
-        <v>14</v>
-      </c>
       <c r="Q9">
+        <v>12</v>
+      </c>
+      <c r="R9">
         <v>70</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1000</v>
       </c>
-      <c r="S9">
-        <v>10</v>
-      </c>
       <c r="T9">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U9">
         <v>17</v>
@@ -1402,13 +1384,13 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
       </c>
       <c r="AA9">
         <v>6</v>
@@ -1417,10 +1399,10 @@
         <v>6</v>
       </c>
       <c r="AC9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE9">
         <v>5</v>
@@ -1429,27 +1411,24 @@
         <v>5</v>
       </c>
       <c r="AG9">
-        <v>5</v>
-      </c>
-      <c r="AH9">
-        <v>2</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1476,28 +1455,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10">
         <v>43</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>14</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>70</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1000</v>
       </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
       <c r="T10">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U10">
         <v>17</v>
@@ -1509,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
       </c>
       <c r="AA10">
         <v>6</v>
@@ -1524,10 +1503,10 @@
         <v>6</v>
       </c>
       <c r="AC10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE10">
         <v>5</v>
@@ -1536,16 +1515,13 @@
         <v>5</v>
       </c>
       <c r="AG10">
-        <v>5</v>
-      </c>
-      <c r="AH10">
-        <v>2</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1583,28 +1559,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11">
         <v>43</v>
       </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
       <c r="Q11">
+        <v>12</v>
+      </c>
+      <c r="R11">
         <v>70</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1000</v>
       </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
       <c r="T11">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U11">
         <v>17</v>
@@ -1616,13 +1592,13 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
       </c>
       <c r="AA11">
         <v>6</v>
@@ -1631,28 +1607,25 @@
         <v>6</v>
       </c>
       <c r="AC11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+      <c r="AG11">
         <v>3</v>
       </c>
-      <c r="AE11">
-        <v>5</v>
-      </c>
-      <c r="AF11">
-        <v>5</v>
-      </c>
-      <c r="AG11">
-        <v>5</v>
-      </c>
-      <c r="AH11">
-        <v>3</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>37</v>
+      <c r="AH11" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1663,7 +1636,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1690,28 +1663,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12">
         <v>43</v>
       </c>
-      <c r="P12">
-        <v>12</v>
-      </c>
       <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
         <v>70</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1000</v>
       </c>
-      <c r="S12">
-        <v>10</v>
-      </c>
       <c r="T12">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U12">
         <v>17</v>
@@ -1723,13 +1696,13 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
       </c>
       <c r="AA12">
         <v>6</v>
@@ -1738,28 +1711,25 @@
         <v>6</v>
       </c>
       <c r="AC12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>5</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+      <c r="AG12">
         <v>3</v>
       </c>
-      <c r="AE12">
-        <v>5</v>
-      </c>
-      <c r="AF12">
-        <v>5</v>
-      </c>
-      <c r="AG12">
-        <v>5</v>
-      </c>
-      <c r="AH12">
-        <v>3</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>37</v>
+      <c r="AH12" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1770,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1797,28 +1767,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13">
         <v>43</v>
       </c>
-      <c r="P13">
-        <v>12</v>
-      </c>
       <c r="Q13">
+        <v>14</v>
+      </c>
+      <c r="R13">
         <v>70</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1000</v>
       </c>
-      <c r="S13">
-        <v>10</v>
-      </c>
       <c r="T13">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U13">
         <v>17</v>
@@ -1830,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13">
+        <v>6</v>
       </c>
       <c r="AA13">
         <v>6</v>
@@ -1845,39 +1815,36 @@
         <v>6</v>
       </c>
       <c r="AC13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>5</v>
+      </c>
+      <c r="AF13">
+        <v>5</v>
+      </c>
+      <c r="AG13">
         <v>3</v>
       </c>
-      <c r="AE13">
-        <v>5</v>
-      </c>
-      <c r="AF13">
-        <v>5</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AH13">
-        <v>3</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>37</v>
+      <c r="AH13" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1906,26 +1873,26 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14">
         <v>43</v>
       </c>
-      <c r="P14">
-        <v>12</v>
-      </c>
       <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
         <v>70</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1000</v>
       </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
       <c r="T14">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U14">
         <v>17</v>
@@ -1937,54 +1904,51 @@
         <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AB14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>5</v>
+      </c>
+      <c r="AE14">
+        <v>5</v>
+      </c>
+      <c r="AF14">
+        <v>5</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14" t="s">
         <v>36</v>
       </c>
-      <c r="AA14">
-        <v>6</v>
-      </c>
-      <c r="AB14">
-        <v>6</v>
-      </c>
-      <c r="AC14">
-        <v>6</v>
-      </c>
-      <c r="AD14">
-        <v>3</v>
-      </c>
-      <c r="AE14">
-        <v>5</v>
-      </c>
-      <c r="AF14">
-        <v>5</v>
-      </c>
-      <c r="AG14">
-        <v>5</v>
-      </c>
-      <c r="AH14">
-        <v>3</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2013,26 +1977,26 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15">
         <v>43</v>
       </c>
-      <c r="P15">
-        <v>12</v>
-      </c>
       <c r="Q15">
+        <v>12</v>
+      </c>
+      <c r="R15">
         <v>70</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1000</v>
       </c>
-      <c r="S15">
-        <v>10</v>
-      </c>
       <c r="T15">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U15">
         <v>17</v>
@@ -2044,54 +2008,51 @@
         <v>1</v>
       </c>
       <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>6</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+      <c r="AF15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AH15" t="s">
         <v>36</v>
       </c>
-      <c r="AA15">
-        <v>6</v>
-      </c>
-      <c r="AB15">
-        <v>6</v>
-      </c>
-      <c r="AC15">
-        <v>6</v>
-      </c>
-      <c r="AD15">
-        <v>3</v>
-      </c>
-      <c r="AE15">
-        <v>5</v>
-      </c>
-      <c r="AF15">
-        <v>5</v>
-      </c>
-      <c r="AG15">
-        <v>5</v>
-      </c>
-      <c r="AH15">
-        <v>3</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2120,26 +2081,26 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16">
         <v>43</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>14</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>70</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1000</v>
       </c>
-      <c r="S16">
-        <v>10</v>
-      </c>
       <c r="T16">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U16">
         <v>17</v>
@@ -2151,54 +2112,51 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>6</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <v>4</v>
+      </c>
+      <c r="AE16">
+        <v>4</v>
+      </c>
+      <c r="AF16">
+        <v>4</v>
+      </c>
+      <c r="AG16">
+        <v>2</v>
+      </c>
+      <c r="AH16" t="s">
         <v>36</v>
       </c>
-      <c r="AA16">
-        <v>6</v>
-      </c>
-      <c r="AB16">
-        <v>6</v>
-      </c>
-      <c r="AC16">
-        <v>6</v>
-      </c>
-      <c r="AD16">
-        <v>3</v>
-      </c>
-      <c r="AE16">
-        <v>5</v>
-      </c>
-      <c r="AF16">
-        <v>5</v>
-      </c>
-      <c r="AG16">
-        <v>5</v>
-      </c>
-      <c r="AH16">
-        <v>3</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:34">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2225,28 +2183,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17">
         <v>43</v>
       </c>
-      <c r="P17">
-        <v>14</v>
-      </c>
       <c r="Q17">
+        <v>12</v>
+      </c>
+      <c r="R17">
         <v>70</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1000</v>
       </c>
-      <c r="S17">
-        <v>10</v>
-      </c>
       <c r="T17">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U17">
         <v>17</v>
@@ -2258,13 +2216,13 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
       </c>
       <c r="AA17">
         <v>6</v>
@@ -2273,10 +2231,10 @@
         <v>6</v>
       </c>
       <c r="AC17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE17">
         <v>5</v>
@@ -2285,27 +2243,24 @@
         <v>5</v>
       </c>
       <c r="AG17">
-        <v>5</v>
-      </c>
-      <c r="AH17">
-        <v>3</v>
-      </c>
-      <c r="AI17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:34">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2332,28 +2287,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18">
         <v>43</v>
       </c>
-      <c r="P18">
-        <v>14</v>
-      </c>
       <c r="Q18">
+        <v>12</v>
+      </c>
+      <c r="R18">
         <v>70</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1000</v>
       </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
       <c r="T18">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U18">
         <v>17</v>
@@ -2365,13 +2320,13 @@
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
       </c>
       <c r="AA18">
         <v>6</v>
@@ -2380,10 +2335,10 @@
         <v>6</v>
       </c>
       <c r="AC18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE18">
         <v>5</v>
@@ -2392,27 +2347,24 @@
         <v>5</v>
       </c>
       <c r="AG18">
-        <v>5</v>
-      </c>
-      <c r="AH18">
-        <v>3</v>
-      </c>
-      <c r="AI18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:34">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2439,28 +2391,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19">
         <v>43</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>14</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>70</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1000</v>
       </c>
-      <c r="S19">
-        <v>10</v>
-      </c>
       <c r="T19">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U19">
         <v>17</v>
@@ -2472,13 +2424,13 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>6</v>
@@ -2487,33 +2439,30 @@
         <v>6</v>
       </c>
       <c r="AC19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG19">
-        <v>5</v>
-      </c>
-      <c r="AH19">
-        <v>3</v>
-      </c>
-      <c r="AI19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:34">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -2546,28 +2495,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20">
         <v>43</v>
       </c>
-      <c r="P20">
-        <v>12</v>
-      </c>
       <c r="Q20">
+        <v>12</v>
+      </c>
+      <c r="R20">
         <v>70</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1000</v>
       </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
       <c r="T20">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U20">
         <v>17</v>
@@ -2579,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20">
+        <v>6</v>
       </c>
       <c r="AA20">
         <v>6</v>
@@ -2594,10 +2543,10 @@
         <v>6</v>
       </c>
       <c r="AC20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE20">
         <v>5</v>
@@ -2606,27 +2555,24 @@
         <v>5</v>
       </c>
       <c r="AG20">
-        <v>5</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:34">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2653,28 +2599,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21">
         <v>43</v>
       </c>
-      <c r="P21">
-        <v>12</v>
-      </c>
       <c r="Q21">
+        <v>12</v>
+      </c>
+      <c r="R21">
         <v>70</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1000</v>
       </c>
-      <c r="S21">
-        <v>10</v>
-      </c>
       <c r="T21">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U21">
         <v>17</v>
@@ -2686,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
       </c>
       <c r="AA21">
         <v>6</v>
@@ -2701,10 +2647,10 @@
         <v>6</v>
       </c>
       <c r="AC21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE21">
         <v>5</v>
@@ -2713,75 +2659,72 @@
         <v>5</v>
       </c>
       <c r="AG21">
-        <v>5</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:34">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>12</v>
       </c>
       <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>3</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22">
         <v>43</v>
       </c>
-      <c r="P22">
-        <v>12</v>
-      </c>
       <c r="Q22">
+        <v>14</v>
+      </c>
+      <c r="R22">
         <v>70</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1000</v>
       </c>
-      <c r="S22">
-        <v>10</v>
-      </c>
       <c r="T22">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U22">
         <v>17</v>
@@ -2793,13 +2736,13 @@
         <v>1</v>
       </c>
       <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22">
+        <v>6</v>
       </c>
       <c r="AA22">
         <v>6</v>
@@ -2808,87 +2751,84 @@
         <v>6</v>
       </c>
       <c r="AC22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG22">
-        <v>5</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:34">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>4</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23">
         <v>43</v>
       </c>
-      <c r="P23">
-        <v>12</v>
-      </c>
       <c r="Q23">
+        <v>12</v>
+      </c>
+      <c r="R23">
         <v>70</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1000</v>
       </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
       <c r="T23">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U23">
         <v>17</v>
@@ -2900,13 +2840,13 @@
         <v>1</v>
       </c>
       <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
       </c>
       <c r="AA23">
         <v>6</v>
@@ -2915,10 +2855,10 @@
         <v>6</v>
       </c>
       <c r="AC23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE23">
         <v>5</v>
@@ -2927,27 +2867,24 @@
         <v>5</v>
       </c>
       <c r="AG23">
-        <v>5</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:34">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2974,28 +2911,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24">
         <v>43</v>
       </c>
-      <c r="P24">
-        <v>12</v>
-      </c>
       <c r="Q24">
+        <v>12</v>
+      </c>
+      <c r="R24">
         <v>70</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1000</v>
       </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
       <c r="T24">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U24">
         <v>17</v>
@@ -3007,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
       </c>
       <c r="AA24">
         <v>6</v>
@@ -3022,10 +2959,10 @@
         <v>6</v>
       </c>
       <c r="AC24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE24">
         <v>5</v>
@@ -3034,27 +2971,24 @@
         <v>5</v>
       </c>
       <c r="AG24">
-        <v>5</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:34">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3081,28 +3015,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25">
         <v>43</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>14</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>70</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1000</v>
       </c>
-      <c r="S25">
-        <v>10</v>
-      </c>
       <c r="T25">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U25">
         <v>17</v>
@@ -3114,13 +3048,13 @@
         <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
       </c>
       <c r="AA25">
         <v>6</v>
@@ -3129,28 +3063,25 @@
         <v>6</v>
       </c>
       <c r="AC25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG25">
-        <v>5</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:34">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3161,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3190,26 +3121,26 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26">
         <v>43</v>
       </c>
-      <c r="P26">
-        <v>14</v>
-      </c>
       <c r="Q26">
+        <v>12</v>
+      </c>
+      <c r="R26">
         <v>70</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1000</v>
       </c>
-      <c r="S26">
-        <v>10</v>
-      </c>
       <c r="T26">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U26">
         <v>17</v>
@@ -3221,43 +3152,40 @@
         <v>1</v>
       </c>
       <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26">
+        <v>6</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>6</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>5</v>
+      </c>
+      <c r="AE26">
+        <v>5</v>
+      </c>
+      <c r="AF26">
+        <v>5</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="s">
         <v>36</v>
       </c>
-      <c r="AA26">
-        <v>6</v>
-      </c>
-      <c r="AB26">
-        <v>6</v>
-      </c>
-      <c r="AC26">
-        <v>6</v>
-      </c>
-      <c r="AD26">
-        <v>2</v>
-      </c>
-      <c r="AE26">
-        <v>5</v>
-      </c>
-      <c r="AF26">
-        <v>5</v>
-      </c>
-      <c r="AG26">
-        <v>5</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:34">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3268,7 +3196,7 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3297,26 +3225,26 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27">
         <v>43</v>
       </c>
-      <c r="P27">
-        <v>14</v>
-      </c>
       <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
         <v>70</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1000</v>
       </c>
-      <c r="S27">
-        <v>10</v>
-      </c>
       <c r="T27">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U27">
         <v>17</v>
@@ -3328,43 +3256,40 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AE27">
+        <v>5</v>
+      </c>
+      <c r="AF27">
+        <v>5</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="s">
         <v>36</v>
       </c>
-      <c r="AA27">
-        <v>6</v>
-      </c>
-      <c r="AB27">
-        <v>6</v>
-      </c>
-      <c r="AC27">
-        <v>6</v>
-      </c>
-      <c r="AD27">
-        <v>2</v>
-      </c>
-      <c r="AE27">
-        <v>5</v>
-      </c>
-      <c r="AF27">
-        <v>5</v>
-      </c>
-      <c r="AG27">
-        <v>5</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:34">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3375,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3404,26 +3329,26 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28">
         <v>43</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>14</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>70</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1000</v>
       </c>
-      <c r="S28">
-        <v>10</v>
-      </c>
       <c r="T28">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="U28">
         <v>17</v>
@@ -3435,40 +3360,973 @@
         <v>1</v>
       </c>
       <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+      <c r="AA28">
+        <v>6</v>
+      </c>
+      <c r="AB28">
+        <v>6</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>5</v>
+      </c>
+      <c r="AE28">
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <v>5</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="s">
         <v>36</v>
       </c>
-      <c r="AA28">
-        <v>6</v>
-      </c>
-      <c r="AB28">
-        <v>6</v>
-      </c>
-      <c r="AC28">
-        <v>6</v>
-      </c>
-      <c r="AD28">
-        <v>2</v>
-      </c>
-      <c r="AE28">
-        <v>5</v>
-      </c>
-      <c r="AF28">
-        <v>5</v>
-      </c>
-      <c r="AG28">
-        <v>5</v>
-      </c>
-      <c r="AH28">
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29">
+        <v>43</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>70</v>
+      </c>
+      <c r="S29">
+        <v>1000</v>
+      </c>
+      <c r="T29">
+        <v>27</v>
+      </c>
+      <c r="U29">
+        <v>17</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
         <v>0</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="Y29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+      <c r="AB29">
+        <v>6</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+      <c r="AD29">
+        <v>5</v>
+      </c>
+      <c r="AE29">
+        <v>5</v>
+      </c>
+      <c r="AF29">
+        <v>5</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30">
+        <v>43</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>70</v>
+      </c>
+      <c r="S30">
+        <v>1000</v>
+      </c>
+      <c r="T30">
+        <v>27</v>
+      </c>
+      <c r="U30">
+        <v>17</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <v>6</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>5</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AF30">
+        <v>5</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31">
+        <v>43</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>70</v>
+      </c>
+      <c r="S31">
+        <v>1000</v>
+      </c>
+      <c r="T31">
+        <v>27</v>
+      </c>
+      <c r="U31">
+        <v>17</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>6</v>
+      </c>
+      <c r="AB31">
+        <v>6</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AD31">
+        <v>5</v>
+      </c>
+      <c r="AE31">
+        <v>5</v>
+      </c>
+      <c r="AF31">
+        <v>5</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>95</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32">
+        <v>43</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+      <c r="R32">
+        <v>70</v>
+      </c>
+      <c r="S32">
+        <v>1000</v>
+      </c>
+      <c r="T32">
+        <v>27</v>
+      </c>
+      <c r="U32">
+        <v>17</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z32">
+        <v>6</v>
+      </c>
+      <c r="AA32">
+        <v>6</v>
+      </c>
+      <c r="AB32">
+        <v>6</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
+        <v>5</v>
+      </c>
+      <c r="AE32">
+        <v>5</v>
+      </c>
+      <c r="AF32">
+        <v>5</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>95</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33">
+        <v>43</v>
+      </c>
+      <c r="Q33">
+        <v>12</v>
+      </c>
+      <c r="R33">
+        <v>70</v>
+      </c>
+      <c r="S33">
+        <v>1000</v>
+      </c>
+      <c r="T33">
+        <v>27</v>
+      </c>
+      <c r="U33">
+        <v>17</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>6</v>
+      </c>
+      <c r="AB33">
+        <v>6</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+      <c r="AD33">
+        <v>5</v>
+      </c>
+      <c r="AE33">
+        <v>5</v>
+      </c>
+      <c r="AF33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>95</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34">
+        <v>43</v>
+      </c>
+      <c r="Q34">
+        <v>14</v>
+      </c>
+      <c r="R34">
+        <v>70</v>
+      </c>
+      <c r="S34">
+        <v>1000</v>
+      </c>
+      <c r="T34">
+        <v>27</v>
+      </c>
+      <c r="U34">
+        <v>17</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z34">
+        <v>6</v>
+      </c>
+      <c r="AA34">
+        <v>6</v>
+      </c>
+      <c r="AB34">
+        <v>6</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>5</v>
+      </c>
+      <c r="AE34">
+        <v>5</v>
+      </c>
+      <c r="AF34">
+        <v>5</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>95</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35">
+        <v>43</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+      <c r="R35">
+        <v>70</v>
+      </c>
+      <c r="S35">
+        <v>1000</v>
+      </c>
+      <c r="T35">
+        <v>27</v>
+      </c>
+      <c r="U35">
+        <v>17</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z35">
+        <v>6</v>
+      </c>
+      <c r="AA35">
+        <v>6</v>
+      </c>
+      <c r="AB35">
+        <v>6</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+      <c r="AD35">
+        <v>5</v>
+      </c>
+      <c r="AE35">
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <v>5</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>95</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>43</v>
+      </c>
+      <c r="Q36">
+        <v>12</v>
+      </c>
+      <c r="R36">
+        <v>70</v>
+      </c>
+      <c r="S36">
+        <v>1000</v>
+      </c>
+      <c r="T36">
+        <v>27</v>
+      </c>
+      <c r="U36">
+        <v>17</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+      <c r="AA36">
+        <v>6</v>
+      </c>
+      <c r="AB36">
+        <v>6</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>5</v>
+      </c>
+      <c r="AE36">
+        <v>5</v>
+      </c>
+      <c r="AF36">
+        <v>5</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>95</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37">
+        <v>43</v>
+      </c>
+      <c r="Q37">
+        <v>14</v>
+      </c>
+      <c r="R37">
+        <v>70</v>
+      </c>
+      <c r="S37">
+        <v>1000</v>
+      </c>
+      <c r="T37">
+        <v>27</v>
+      </c>
+      <c r="U37">
+        <v>17</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z37">
+        <v>6</v>
+      </c>
+      <c r="AA37">
+        <v>6</v>
+      </c>
+      <c r="AB37">
+        <v>6</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+      <c r="AD37">
+        <v>5</v>
+      </c>
+      <c r="AE37">
+        <v>5</v>
+      </c>
+      <c r="AF37">
+        <v>5</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/excelLineup.xlsx
+++ b/excelLineup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Lineup_Index</t>
   </si>
@@ -59,10 +59,25 @@
     <t>LO_Linup_Index</t>
   </si>
   <si>
-    <t>XIFsw</t>
+    <t>lo_mixer_ctrl</t>
   </si>
   <si>
-    <t>FW.g_calib_if_gain_txrx_target</t>
+    <t>lo_rfc_ctrl</t>
+  </si>
+  <si>
+    <t>lo_xif_ctrl</t>
+  </si>
+  <si>
+    <t>Pin_Start</t>
+  </si>
+  <si>
+    <t>Pin_Stop</t>
+  </si>
+  <si>
+    <t>Pin_Delta</t>
+  </si>
+  <si>
+    <t>Target_RSSI</t>
   </si>
   <si>
     <t>MSC_table</t>
@@ -74,67 +89,49 @@
     <t>PacketLengthPayload</t>
   </si>
   <si>
-    <t>Power_Sweep_Table</t>
+    <t>ifrx_comm_gain_val</t>
   </si>
   <si>
-    <t>tx_gain_row</t>
+    <t>ifrx_comm1_val</t>
   </si>
   <si>
-    <t>lo_mixer_ctrl</t>
+    <t>ifrx_comm2_val</t>
   </si>
   <si>
-    <t>lo_rfc_ctrl</t>
+    <t>ifrx_comm3_val</t>
   </si>
   <si>
-    <t>lo_xif_ctrl</t>
+    <t>ifmux_gain_val</t>
   </si>
   <si>
-    <t>tx_bypass_en</t>
+    <t>ifmux_stg1_val</t>
   </si>
   <si>
-    <t>iftx_ctrl1_val</t>
+    <t>ifmux_stg2_val</t>
   </si>
   <si>
-    <t>iftx_ctrl2_val</t>
+    <t>ifmux_stg3_val</t>
   </si>
   <si>
-    <t>iftx_ctrl3_val</t>
+    <t>SAR_DCRemoval</t>
   </si>
   <si>
-    <t>iftx_gain</t>
+    <t>DCRemoval</t>
   </si>
   <si>
-    <t>iftx_stg1_val</t>
-  </si>
-  <si>
-    <t>iftx_stg2_val</t>
-  </si>
-  <si>
-    <t>iftx_stg3_val</t>
-  </si>
-  <si>
-    <t>if_mux_gain_val</t>
+    <t>rx_bypass_en</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>"11111111"</t>
+    <t>TRUE</t>
   </si>
   <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>PORT A</t>
-  </si>
-  <si>
-    <t>PORT B</t>
-  </si>
-  <si>
-    <t>PORT D</t>
-  </si>
-  <si>
-    <t>PORT C</t>
+    <t>force mode_8dB_E</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,13 +581,19 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -602,307 +605,325 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S2">
+        <v>-10</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>22</v>
+      </c>
+      <c r="V2">
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <v>400</v>
+      </c>
+      <c r="X2">
         <v>1000</v>
       </c>
-      <c r="T2">
-        <v>27</v>
-      </c>
-      <c r="U2">
-        <v>17</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
+      <c r="Y2">
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>3</v>
       </c>
       <c r="AD2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>5</v>
-      </c>
-      <c r="AG2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>36</v>
       </c>
       <c r="AH2" t="s">
         <v>36</v>
       </c>
+      <c r="AI2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S3">
+        <v>-10</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
+        <v>400</v>
+      </c>
+      <c r="X3">
         <v>1000</v>
       </c>
-      <c r="T3">
-        <v>27</v>
-      </c>
-      <c r="U3">
-        <v>17</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>35</v>
+      <c r="Y3">
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>3</v>
       </c>
       <c r="AD3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>5</v>
-      </c>
-      <c r="AG3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>36</v>
       </c>
       <c r="AH3" t="s">
         <v>36</v>
       </c>
+      <c r="AI3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:36">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S4">
+        <v>-10</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>22</v>
+      </c>
+      <c r="V4">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <v>400</v>
+      </c>
+      <c r="X4">
         <v>1000</v>
       </c>
-      <c r="T4">
-        <v>27</v>
-      </c>
-      <c r="U4">
-        <v>17</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>35</v>
+      <c r="Y4">
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>3</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>5</v>
-      </c>
-      <c r="AG4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>36</v>
       </c>
       <c r="AH4" t="s">
         <v>36</v>
       </c>
+      <c r="AI4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:36">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -911,310 +932,328 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S5">
+        <v>-10</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>22</v>
+      </c>
+      <c r="V5">
+        <v>12</v>
+      </c>
+      <c r="W5">
+        <v>400</v>
+      </c>
+      <c r="X5">
         <v>1000</v>
       </c>
-      <c r="T5">
-        <v>27</v>
-      </c>
-      <c r="U5">
-        <v>17</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>35</v>
+      <c r="Y5">
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>3</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>5</v>
-      </c>
-      <c r="AG5">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>36</v>
       </c>
       <c r="AH5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI5" t="s">
         <v>37</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:36">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S6">
+        <v>-10</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>22</v>
+      </c>
+      <c r="V6">
+        <v>12</v>
+      </c>
+      <c r="W6">
+        <v>400</v>
+      </c>
+      <c r="X6">
         <v>1000</v>
       </c>
-      <c r="T6">
-        <v>27</v>
-      </c>
-      <c r="U6">
-        <v>17</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>35</v>
+      <c r="Y6">
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>3</v>
       </c>
       <c r="AD6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>5</v>
-      </c>
-      <c r="AG6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>36</v>
       </c>
       <c r="AH6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI6" t="s">
         <v>37</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S7">
+        <v>-10</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>22</v>
+      </c>
+      <c r="V7">
+        <v>12</v>
+      </c>
+      <c r="W7">
+        <v>400</v>
+      </c>
+      <c r="X7">
         <v>1000</v>
       </c>
-      <c r="T7">
-        <v>27</v>
-      </c>
-      <c r="U7">
-        <v>17</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>35</v>
+      <c r="Y7">
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>3</v>
       </c>
       <c r="AD7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>5</v>
-      </c>
-      <c r="AG7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>36</v>
       </c>
       <c r="AH7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI7" t="s">
         <v>37</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:36">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -1223,414 +1262,438 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S8">
+        <v>-10</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>22</v>
+      </c>
+      <c r="V8">
+        <v>12</v>
+      </c>
+      <c r="W8">
+        <v>400</v>
+      </c>
+      <c r="X8">
         <v>1000</v>
       </c>
-      <c r="T8">
-        <v>27</v>
-      </c>
-      <c r="U8">
-        <v>17</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>35</v>
+      <c r="Y8">
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>3</v>
       </c>
       <c r="AD8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>5</v>
-      </c>
-      <c r="AG8">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>36</v>
       </c>
       <c r="AH8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:36">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S9">
+        <v>-10</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>22</v>
+      </c>
+      <c r="V9">
+        <v>12</v>
+      </c>
+      <c r="W9">
+        <v>400</v>
+      </c>
+      <c r="X9">
         <v>1000</v>
       </c>
-      <c r="T9">
-        <v>27</v>
-      </c>
-      <c r="U9">
-        <v>17</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>35</v>
+      <c r="Y9">
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>3</v>
       </c>
       <c r="AD9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>5</v>
-      </c>
-      <c r="AG9">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>36</v>
       </c>
       <c r="AH9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:36">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S10">
+        <v>-10</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>22</v>
+      </c>
+      <c r="V10">
+        <v>12</v>
+      </c>
+      <c r="W10">
+        <v>400</v>
+      </c>
+      <c r="X10">
         <v>1000</v>
       </c>
-      <c r="T10">
-        <v>27</v>
-      </c>
-      <c r="U10">
-        <v>17</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>35</v>
+      <c r="Y10">
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>3</v>
       </c>
       <c r="AD10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>5</v>
-      </c>
-      <c r="AG10">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>36</v>
       </c>
       <c r="AH10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:36">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S11">
+        <v>-10</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>22</v>
+      </c>
+      <c r="V11">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <v>400</v>
+      </c>
+      <c r="X11">
         <v>1000</v>
       </c>
-      <c r="T11">
-        <v>27</v>
-      </c>
-      <c r="U11">
-        <v>17</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>35</v>
+      <c r="Y11">
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>3</v>
       </c>
       <c r="AD11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>5</v>
-      </c>
-      <c r="AG11">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>36</v>
       </c>
       <c r="AH11" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:36">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1639,310 +1702,328 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>-40</v>
+      </c>
+      <c r="S12">
+        <v>-10</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>22</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>400</v>
+      </c>
+      <c r="X12">
+        <v>1000</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12">
-        <v>43</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-      <c r="R12">
-        <v>70</v>
-      </c>
-      <c r="S12">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>-40</v>
+      </c>
+      <c r="S13">
+        <v>-10</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>22</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <v>400</v>
+      </c>
+      <c r="X13">
         <v>1000</v>
       </c>
-      <c r="T12">
-        <v>27</v>
-      </c>
-      <c r="U12">
-        <v>17</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z12">
-        <v>6</v>
-      </c>
-      <c r="AA12">
-        <v>6</v>
-      </c>
-      <c r="AB12">
-        <v>6</v>
-      </c>
-      <c r="AC12">
-        <v>3</v>
-      </c>
-      <c r="AD12">
-        <v>5</v>
-      </c>
-      <c r="AE12">
-        <v>5</v>
-      </c>
-      <c r="AF12">
-        <v>5</v>
-      </c>
-      <c r="AG12">
-        <v>3</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>39</v>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-30</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13">
-        <v>43</v>
-      </c>
-      <c r="Q13">
-        <v>14</v>
-      </c>
-      <c r="R13">
-        <v>70</v>
-      </c>
-      <c r="S13">
-        <v>1000</v>
-      </c>
-      <c r="T13">
-        <v>27</v>
-      </c>
-      <c r="U13">
-        <v>17</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z13">
-        <v>6</v>
-      </c>
-      <c r="AA13">
-        <v>6</v>
-      </c>
-      <c r="AB13">
-        <v>6</v>
-      </c>
-      <c r="AC13">
-        <v>3</v>
-      </c>
-      <c r="AD13">
-        <v>5</v>
-      </c>
-      <c r="AE13">
-        <v>5</v>
-      </c>
-      <c r="AF13">
-        <v>5</v>
-      </c>
-      <c r="AG13">
-        <v>3</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:36">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S14">
+        <v>-10</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>22</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <v>400</v>
+      </c>
+      <c r="X14">
         <v>1000</v>
       </c>
-      <c r="T14">
-        <v>27</v>
-      </c>
-      <c r="U14">
-        <v>17</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>35</v>
+      <c r="Y14">
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>5</v>
-      </c>
-      <c r="AG14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>36</v>
       </c>
       <c r="AH14" t="s">
         <v>36</v>
       </c>
+      <c r="AI14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:36">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -1951,414 +2032,438 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S15">
+        <v>-10</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>22</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>400</v>
+      </c>
+      <c r="X15">
         <v>1000</v>
       </c>
-      <c r="T15">
-        <v>27</v>
-      </c>
-      <c r="U15">
-        <v>17</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>35</v>
+      <c r="Y15">
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>5</v>
-      </c>
-      <c r="AG15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>36</v>
       </c>
       <c r="AH15" t="s">
         <v>36</v>
       </c>
+      <c r="AI15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:36">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S16">
+        <v>-10</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>22</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>400</v>
+      </c>
+      <c r="X16">
         <v>1000</v>
       </c>
-      <c r="T16">
-        <v>27</v>
-      </c>
-      <c r="U16">
-        <v>17</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>35</v>
+      <c r="Y16">
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>4</v>
-      </c>
-      <c r="AG16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>36</v>
       </c>
       <c r="AH16" t="s">
         <v>36</v>
       </c>
+      <c r="AI16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
-        <v>34</v>
+      <c r="O17">
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S17">
+        <v>-10</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>22</v>
+      </c>
+      <c r="V17">
+        <v>12</v>
+      </c>
+      <c r="W17">
+        <v>400</v>
+      </c>
+      <c r="X17">
         <v>1000</v>
       </c>
-      <c r="T17">
-        <v>27</v>
-      </c>
-      <c r="U17">
-        <v>17</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>35</v>
+      <c r="Y17">
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>5</v>
-      </c>
-      <c r="AG17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>36</v>
       </c>
       <c r="AH17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI17" t="s">
         <v>37</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:36">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
-        <v>34</v>
+      <c r="O18">
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S18">
+        <v>-10</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>25</v>
+      </c>
+      <c r="V18">
+        <v>14</v>
+      </c>
+      <c r="W18">
+        <v>400</v>
+      </c>
+      <c r="X18">
         <v>1000</v>
       </c>
-      <c r="T18">
-        <v>27</v>
-      </c>
-      <c r="U18">
-        <v>17</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>35</v>
+      <c r="Y18">
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>5</v>
-      </c>
-      <c r="AG18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>36</v>
       </c>
       <c r="AH18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI18" t="s">
         <v>37</v>
       </c>
+      <c r="AJ18" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -2367,310 +2472,328 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>2</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>34</v>
+      <c r="O19">
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>-40</v>
+      </c>
+      <c r="S19">
+        <v>-10</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>25</v>
+      </c>
+      <c r="V19">
         <v>14</v>
       </c>
-      <c r="R19">
-        <v>70</v>
-      </c>
-      <c r="S19">
+      <c r="W19">
+        <v>400</v>
+      </c>
+      <c r="X19">
         <v>1000</v>
       </c>
-      <c r="T19">
-        <v>27</v>
-      </c>
-      <c r="U19">
-        <v>17</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>35</v>
+      <c r="Y19">
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>4</v>
-      </c>
-      <c r="AG19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>36</v>
       </c>
       <c r="AH19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI19" t="s">
         <v>37</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S20">
+        <v>-10</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>25</v>
+      </c>
+      <c r="V20">
+        <v>14</v>
+      </c>
+      <c r="W20">
+        <v>400</v>
+      </c>
+      <c r="X20">
         <v>1000</v>
       </c>
-      <c r="T20">
-        <v>27</v>
-      </c>
-      <c r="U20">
-        <v>17</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>35</v>
+      <c r="Y20">
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>5</v>
-      </c>
-      <c r="AG20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>36</v>
       </c>
       <c r="AH20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S21">
+        <v>-10</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>25</v>
+      </c>
+      <c r="V21">
+        <v>14</v>
+      </c>
+      <c r="W21">
+        <v>400</v>
+      </c>
+      <c r="X21">
         <v>1000</v>
       </c>
-      <c r="T21">
-        <v>27</v>
-      </c>
-      <c r="U21">
-        <v>17</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>35</v>
+      <c r="Y21">
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>5</v>
-      </c>
-      <c r="AG21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>36</v>
       </c>
       <c r="AH21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -2679,310 +2802,328 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>-40</v>
+      </c>
+      <c r="S22">
+        <v>-10</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>25</v>
+      </c>
+      <c r="V22">
         <v>14</v>
       </c>
-      <c r="R22">
-        <v>70</v>
-      </c>
-      <c r="S22">
+      <c r="W22">
+        <v>400</v>
+      </c>
+      <c r="X22">
         <v>1000</v>
       </c>
-      <c r="T22">
-        <v>27</v>
-      </c>
-      <c r="U22">
-        <v>17</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>35</v>
+      <c r="Y22">
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>4</v>
-      </c>
-      <c r="AG22">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>36</v>
       </c>
       <c r="AH22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S23">
+        <v>-10</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>25</v>
+      </c>
+      <c r="V23">
+        <v>14</v>
+      </c>
+      <c r="W23">
+        <v>400</v>
+      </c>
+      <c r="X23">
         <v>1000</v>
       </c>
-      <c r="T23">
-        <v>27</v>
-      </c>
-      <c r="U23">
-        <v>17</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>35</v>
+      <c r="Y23">
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF23">
-        <v>5</v>
-      </c>
-      <c r="AG23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>36</v>
       </c>
       <c r="AH23" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S24">
+        <v>-10</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>25</v>
+      </c>
+      <c r="V24">
+        <v>14</v>
+      </c>
+      <c r="W24">
+        <v>400</v>
+      </c>
+      <c r="X24">
         <v>1000</v>
       </c>
-      <c r="T24">
-        <v>27</v>
-      </c>
-      <c r="U24">
-        <v>17</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>35</v>
+      <c r="Y24">
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>5</v>
-      </c>
-      <c r="AG24">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>36</v>
       </c>
       <c r="AH24" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -2991,102 +3132,108 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>-40</v>
+      </c>
+      <c r="S25">
+        <v>-10</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>25</v>
+      </c>
+      <c r="V25">
         <v>14</v>
       </c>
-      <c r="R25">
-        <v>70</v>
-      </c>
-      <c r="S25">
+      <c r="W25">
+        <v>400</v>
+      </c>
+      <c r="X25">
         <v>1000</v>
       </c>
-      <c r="T25">
-        <v>27</v>
-      </c>
-      <c r="U25">
-        <v>17</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>35</v>
+      <c r="Y25">
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF25">
-        <v>4</v>
-      </c>
-      <c r="AG25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>36</v>
       </c>
       <c r="AH25" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:36">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -3098,307 +3245,325 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S26">
+        <v>-10</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>22</v>
+      </c>
+      <c r="V26">
+        <v>12</v>
+      </c>
+      <c r="W26">
+        <v>400</v>
+      </c>
+      <c r="X26">
         <v>1000</v>
       </c>
-      <c r="T26">
-        <v>27</v>
-      </c>
-      <c r="U26">
-        <v>17</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>35</v>
+      <c r="Y26">
+        <v>3</v>
       </c>
       <c r="Z26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <v>5</v>
-      </c>
-      <c r="AG26">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>36</v>
       </c>
       <c r="AH26" t="s">
         <v>36</v>
       </c>
+      <c r="AI26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:36">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C27">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S27">
+        <v>-10</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>22</v>
+      </c>
+      <c r="V27">
+        <v>12</v>
+      </c>
+      <c r="W27">
+        <v>400</v>
+      </c>
+      <c r="X27">
         <v>1000</v>
       </c>
-      <c r="T27">
-        <v>27</v>
-      </c>
-      <c r="U27">
-        <v>17</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>35</v>
+      <c r="Y27">
+        <v>3</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF27">
-        <v>5</v>
-      </c>
-      <c r="AG27">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>36</v>
       </c>
       <c r="AH27" t="s">
         <v>36</v>
       </c>
+      <c r="AI27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:36">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C28">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S28">
+        <v>-10</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>22</v>
+      </c>
+      <c r="V28">
+        <v>12</v>
+      </c>
+      <c r="W28">
+        <v>400</v>
+      </c>
+      <c r="X28">
         <v>1000</v>
       </c>
-      <c r="T28">
-        <v>27</v>
-      </c>
-      <c r="U28">
-        <v>17</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>35</v>
+      <c r="Y28">
+        <v>3</v>
       </c>
       <c r="Z28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF28">
-        <v>5</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>36</v>
       </c>
       <c r="AH28" t="s">
         <v>36</v>
       </c>
+      <c r="AI28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:36">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -3407,310 +3572,328 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
         <v>2</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>34</v>
+      <c r="O29">
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S29">
+        <v>-10</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>22</v>
+      </c>
+      <c r="V29">
+        <v>12</v>
+      </c>
+      <c r="W29">
+        <v>400</v>
+      </c>
+      <c r="X29">
         <v>1000</v>
       </c>
-      <c r="T29">
-        <v>27</v>
-      </c>
-      <c r="U29">
-        <v>17</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>35</v>
+      <c r="Y29">
+        <v>3</v>
       </c>
       <c r="Z29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>5</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>36</v>
       </c>
       <c r="AH29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI29" t="s">
         <v>37</v>
       </c>
+      <c r="AJ29" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:36">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C30">
         <v>12</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>4</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
+      <c r="N30">
         <v>2</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30" t="s">
-        <v>34</v>
+      <c r="O30">
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S30">
+        <v>-10</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>22</v>
+      </c>
+      <c r="V30">
+        <v>12</v>
+      </c>
+      <c r="W30">
+        <v>400</v>
+      </c>
+      <c r="X30">
         <v>1000</v>
       </c>
-      <c r="T30">
-        <v>27</v>
-      </c>
-      <c r="U30">
-        <v>17</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>35</v>
+      <c r="Y30">
+        <v>3</v>
       </c>
       <c r="Z30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>5</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>36</v>
       </c>
       <c r="AH30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI30" t="s">
         <v>37</v>
       </c>
+      <c r="AJ30" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:36">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C31">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
         <v>2</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
-        <v>34</v>
+      <c r="O31">
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S31">
+        <v>-10</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>22</v>
+      </c>
+      <c r="V31">
+        <v>12</v>
+      </c>
+      <c r="W31">
+        <v>400</v>
+      </c>
+      <c r="X31">
         <v>1000</v>
       </c>
-      <c r="T31">
-        <v>27</v>
-      </c>
-      <c r="U31">
-        <v>17</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>35</v>
+      <c r="Y31">
+        <v>3</v>
       </c>
       <c r="Z31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF31">
-        <v>5</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>36</v>
       </c>
       <c r="AH31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI31" t="s">
         <v>37</v>
       </c>
+      <c r="AJ31" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:36">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -3719,414 +3902,438 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S32">
+        <v>-10</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>22</v>
+      </c>
+      <c r="V32">
+        <v>12</v>
+      </c>
+      <c r="W32">
+        <v>400</v>
+      </c>
+      <c r="X32">
         <v>1000</v>
       </c>
-      <c r="T32">
-        <v>27</v>
-      </c>
-      <c r="U32">
-        <v>17</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>35</v>
+      <c r="Y32">
+        <v>3</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>5</v>
-      </c>
-      <c r="AG32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>36</v>
       </c>
       <c r="AH32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:36">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C33">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S33">
+        <v>-10</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>22</v>
+      </c>
+      <c r="V33">
+        <v>12</v>
+      </c>
+      <c r="W33">
+        <v>400</v>
+      </c>
+      <c r="X33">
         <v>1000</v>
       </c>
-      <c r="T33">
-        <v>27</v>
-      </c>
-      <c r="U33">
-        <v>17</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>35</v>
+      <c r="Y33">
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>5</v>
-      </c>
-      <c r="AG33">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>36</v>
       </c>
       <c r="AH33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:36">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S34">
+        <v>-10</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>22</v>
+      </c>
+      <c r="V34">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <v>400</v>
+      </c>
+      <c r="X34">
         <v>1000</v>
       </c>
-      <c r="T34">
-        <v>27</v>
-      </c>
-      <c r="U34">
-        <v>17</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>35</v>
+      <c r="Y34">
+        <v>3</v>
       </c>
       <c r="Z34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>5</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>36</v>
       </c>
       <c r="AH34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:36">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C35">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="S35">
+        <v>-10</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>22</v>
+      </c>
+      <c r="V35">
+        <v>12</v>
+      </c>
+      <c r="W35">
+        <v>400</v>
+      </c>
+      <c r="X35">
         <v>1000</v>
       </c>
-      <c r="T35">
-        <v>27</v>
-      </c>
-      <c r="U35">
-        <v>17</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>35</v>
+      <c r="Y35">
+        <v>3</v>
       </c>
       <c r="Z35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF35">
-        <v>5</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>36</v>
       </c>
       <c r="AH35" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:36">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -4135,198 +4342,4170 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>-40</v>
+      </c>
+      <c r="S36">
+        <v>-10</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>22</v>
+      </c>
+      <c r="V36">
+        <v>12</v>
+      </c>
+      <c r="W36">
+        <v>400</v>
+      </c>
+      <c r="X36">
+        <v>1000</v>
+      </c>
+      <c r="Y36">
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-40</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
         <v>4</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
-        <v>34</v>
-      </c>
-      <c r="P36">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>-40</v>
+      </c>
+      <c r="S37">
+        <v>-10</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>22</v>
+      </c>
+      <c r="V37">
+        <v>12</v>
+      </c>
+      <c r="W37">
+        <v>400</v>
+      </c>
+      <c r="X37">
+        <v>1000</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>-40</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>-40</v>
+      </c>
+      <c r="S38">
+        <v>-10</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>22</v>
+      </c>
+      <c r="V38">
+        <v>12</v>
+      </c>
+      <c r="W38">
+        <v>400</v>
+      </c>
+      <c r="X38">
+        <v>1000</v>
+      </c>
+      <c r="Y38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>-40</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>-40</v>
+      </c>
+      <c r="S39">
+        <v>-10</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>22</v>
+      </c>
+      <c r="V39">
+        <v>12</v>
+      </c>
+      <c r="W39">
+        <v>400</v>
+      </c>
+      <c r="X39">
+        <v>1000</v>
+      </c>
+      <c r="Y39">
+        <v>3</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>-40</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>-40</v>
+      </c>
+      <c r="S40">
+        <v>-10</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>22</v>
+      </c>
+      <c r="V40">
+        <v>12</v>
+      </c>
+      <c r="W40">
+        <v>400</v>
+      </c>
+      <c r="X40">
+        <v>1000</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>-40</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>-40</v>
+      </c>
+      <c r="S41">
+        <v>-10</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>22</v>
+      </c>
+      <c r="V41">
+        <v>12</v>
+      </c>
+      <c r="W41">
+        <v>400</v>
+      </c>
+      <c r="X41">
+        <v>1000</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>-40</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>-40</v>
+      </c>
+      <c r="S42">
+        <v>-10</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>25</v>
+      </c>
+      <c r="V42">
+        <v>14</v>
+      </c>
+      <c r="W42">
+        <v>400</v>
+      </c>
+      <c r="X42">
+        <v>1000</v>
+      </c>
+      <c r="Y42">
+        <v>3</v>
+      </c>
+      <c r="Z42">
+        <v>6</v>
+      </c>
+      <c r="AA42">
+        <v>6</v>
+      </c>
+      <c r="AB42">
+        <v>6</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>-40</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>-40</v>
+      </c>
+      <c r="S43">
+        <v>-10</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>25</v>
+      </c>
+      <c r="V43">
+        <v>14</v>
+      </c>
+      <c r="W43">
+        <v>400</v>
+      </c>
+      <c r="X43">
+        <v>1000</v>
+      </c>
+      <c r="Y43">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>6</v>
+      </c>
+      <c r="AA43">
+        <v>6</v>
+      </c>
+      <c r="AB43">
+        <v>6</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="Q36">
-        <v>12</v>
-      </c>
-      <c r="R36">
-        <v>70</v>
-      </c>
-      <c r="S36">
+      <c r="B44">
+        <v>-40</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>-40</v>
+      </c>
+      <c r="S44">
+        <v>-10</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>25</v>
+      </c>
+      <c r="V44">
+        <v>14</v>
+      </c>
+      <c r="W44">
+        <v>400</v>
+      </c>
+      <c r="X44">
         <v>1000</v>
       </c>
-      <c r="T36">
-        <v>27</v>
-      </c>
-      <c r="U36">
-        <v>17</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z36">
+      <c r="Y44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
         <v>6</v>
       </c>
-      <c r="AA36">
+      <c r="AA44">
         <v>6</v>
       </c>
-      <c r="AB36">
+      <c r="AB44">
         <v>6</v>
       </c>
-      <c r="AC36">
+      <c r="AC44">
+        <v>3</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>-40</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
         <v>2</v>
       </c>
-      <c r="AD36">
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>-40</v>
+      </c>
+      <c r="S45">
+        <v>-10</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>25</v>
+      </c>
+      <c r="V45">
+        <v>14</v>
+      </c>
+      <c r="W45">
+        <v>400</v>
+      </c>
+      <c r="X45">
+        <v>1000</v>
+      </c>
+      <c r="Y45">
+        <v>3</v>
+      </c>
+      <c r="Z45">
+        <v>6</v>
+      </c>
+      <c r="AA45">
+        <v>6</v>
+      </c>
+      <c r="AB45">
+        <v>6</v>
+      </c>
+      <c r="AC45">
+        <v>3</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>-40</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>-40</v>
+      </c>
+      <c r="S46">
+        <v>-10</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>25</v>
+      </c>
+      <c r="V46">
+        <v>14</v>
+      </c>
+      <c r="W46">
+        <v>400</v>
+      </c>
+      <c r="X46">
+        <v>1000</v>
+      </c>
+      <c r="Y46">
+        <v>3</v>
+      </c>
+      <c r="Z46">
+        <v>6</v>
+      </c>
+      <c r="AA46">
+        <v>6</v>
+      </c>
+      <c r="AB46">
+        <v>6</v>
+      </c>
+      <c r="AC46">
+        <v>3</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>-40</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>5</v>
       </c>
-      <c r="AE36">
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>-40</v>
+      </c>
+      <c r="S47">
+        <v>-10</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>25</v>
+      </c>
+      <c r="V47">
+        <v>14</v>
+      </c>
+      <c r="W47">
+        <v>400</v>
+      </c>
+      <c r="X47">
+        <v>1000</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>6</v>
+      </c>
+      <c r="AA47">
+        <v>6</v>
+      </c>
+      <c r="AB47">
+        <v>6</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>-40</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>-40</v>
+      </c>
+      <c r="S48">
+        <v>-10</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>25</v>
+      </c>
+      <c r="V48">
+        <v>14</v>
+      </c>
+      <c r="W48">
+        <v>400</v>
+      </c>
+      <c r="X48">
+        <v>1000</v>
+      </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>6</v>
+      </c>
+      <c r="AA48">
+        <v>6</v>
+      </c>
+      <c r="AB48">
+        <v>6</v>
+      </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>-40</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>-40</v>
+      </c>
+      <c r="S49">
+        <v>-10</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>25</v>
+      </c>
+      <c r="V49">
+        <v>14</v>
+      </c>
+      <c r="W49">
+        <v>400</v>
+      </c>
+      <c r="X49">
+        <v>1000</v>
+      </c>
+      <c r="Y49">
+        <v>3</v>
+      </c>
+      <c r="Z49">
+        <v>6</v>
+      </c>
+      <c r="AA49">
+        <v>6</v>
+      </c>
+      <c r="AB49">
+        <v>6</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36">
+      <c r="A50">
+        <v>73</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>-40</v>
+      </c>
+      <c r="S50">
+        <v>-10</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>22</v>
+      </c>
+      <c r="V50">
+        <v>12</v>
+      </c>
+      <c r="W50">
+        <v>400</v>
+      </c>
+      <c r="X50">
+        <v>1000</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36">
+      <c r="A51">
+        <v>74</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>-40</v>
+      </c>
+      <c r="S51">
+        <v>-10</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>22</v>
+      </c>
+      <c r="V51">
+        <v>12</v>
+      </c>
+      <c r="W51">
+        <v>400</v>
+      </c>
+      <c r="X51">
+        <v>1000</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36">
+      <c r="A52">
+        <v>75</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>-40</v>
+      </c>
+      <c r="S52">
+        <v>-10</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>22</v>
+      </c>
+      <c r="V52">
+        <v>12</v>
+      </c>
+      <c r="W52">
+        <v>400</v>
+      </c>
+      <c r="X52">
+        <v>1000</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36">
+      <c r="A53">
+        <v>76</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>-40</v>
+      </c>
+      <c r="S53">
+        <v>-10</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>22</v>
+      </c>
+      <c r="V53">
+        <v>12</v>
+      </c>
+      <c r="W53">
+        <v>400</v>
+      </c>
+      <c r="X53">
+        <v>1000</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <v>3</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36">
+      <c r="A54">
+        <v>77</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>-40</v>
+      </c>
+      <c r="S54">
+        <v>-10</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>22</v>
+      </c>
+      <c r="V54">
+        <v>12</v>
+      </c>
+      <c r="W54">
+        <v>400</v>
+      </c>
+      <c r="X54">
+        <v>1000</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <v>3</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36">
+      <c r="A55">
+        <v>78</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>5</v>
       </c>
-      <c r="AF36">
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>-40</v>
+      </c>
+      <c r="S55">
+        <v>-10</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>22</v>
+      </c>
+      <c r="V55">
+        <v>12</v>
+      </c>
+      <c r="W55">
+        <v>400</v>
+      </c>
+      <c r="X55">
+        <v>1000</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36">
+      <c r="A56">
+        <v>79</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>6</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>-40</v>
+      </c>
+      <c r="S56">
+        <v>-10</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>22</v>
+      </c>
+      <c r="V56">
+        <v>12</v>
+      </c>
+      <c r="W56">
+        <v>400</v>
+      </c>
+      <c r="X56">
+        <v>1000</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>-40</v>
+      </c>
+      <c r="S57">
+        <v>-10</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>22</v>
+      </c>
+      <c r="V57">
+        <v>12</v>
+      </c>
+      <c r="W57">
+        <v>400</v>
+      </c>
+      <c r="X57">
+        <v>1000</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>3</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36">
+      <c r="A58">
+        <v>81</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>-40</v>
+      </c>
+      <c r="S58">
+        <v>-10</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>22</v>
+      </c>
+      <c r="V58">
+        <v>12</v>
+      </c>
+      <c r="W58">
+        <v>400</v>
+      </c>
+      <c r="X58">
+        <v>1000</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>3</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36">
+      <c r="A59">
+        <v>82</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>-40</v>
+      </c>
+      <c r="S59">
+        <v>-10</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>22</v>
+      </c>
+      <c r="V59">
+        <v>12</v>
+      </c>
+      <c r="W59">
+        <v>400</v>
+      </c>
+      <c r="X59">
+        <v>1000</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <v>3</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36">
+      <c r="A60">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>-40</v>
+      </c>
+      <c r="S60">
+        <v>-10</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>22</v>
+      </c>
+      <c r="V60">
+        <v>12</v>
+      </c>
+      <c r="W60">
+        <v>400</v>
+      </c>
+      <c r="X60">
+        <v>1000</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36">
+      <c r="A61">
+        <v>84</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>-40</v>
+      </c>
+      <c r="S61">
+        <v>-10</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>22</v>
+      </c>
+      <c r="V61">
+        <v>12</v>
+      </c>
+      <c r="W61">
+        <v>400</v>
+      </c>
+      <c r="X61">
+        <v>1000</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61">
+        <v>3</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="A62">
+        <v>85</v>
+      </c>
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>-40</v>
+      </c>
+      <c r="S62">
+        <v>-10</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>22</v>
+      </c>
+      <c r="V62">
+        <v>12</v>
+      </c>
+      <c r="W62">
+        <v>400</v>
+      </c>
+      <c r="X62">
+        <v>1000</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AC62">
+        <v>3</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="A63">
+        <v>86</v>
+      </c>
+      <c r="B63">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
         <v>5</v>
       </c>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>39</v>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>-40</v>
+      </c>
+      <c r="S63">
+        <v>-10</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>22</v>
+      </c>
+      <c r="V63">
+        <v>12</v>
+      </c>
+      <c r="W63">
+        <v>400</v>
+      </c>
+      <c r="X63">
+        <v>1000</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AC63">
+        <v>3</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="64" spans="1:36">
+      <c r="A64">
+        <v>87</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>6</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>-40</v>
+      </c>
+      <c r="S64">
+        <v>-10</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>22</v>
+      </c>
+      <c r="V64">
+        <v>12</v>
+      </c>
+      <c r="W64">
+        <v>400</v>
+      </c>
+      <c r="X64">
+        <v>1000</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>3</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36">
+      <c r="A65">
+        <v>88</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>-40</v>
+      </c>
+      <c r="S65">
+        <v>-10</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>22</v>
+      </c>
+      <c r="V65">
+        <v>12</v>
+      </c>
+      <c r="W65">
+        <v>400</v>
+      </c>
+      <c r="X65">
+        <v>1000</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65">
+        <v>3</v>
+      </c>
+      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36">
+      <c r="A66">
+        <v>89</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>-40</v>
+      </c>
+      <c r="S66">
+        <v>-10</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>25</v>
+      </c>
+      <c r="V66">
+        <v>14</v>
+      </c>
+      <c r="W66">
+        <v>400</v>
+      </c>
+      <c r="X66">
+        <v>1000</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>6</v>
+      </c>
+      <c r="AA66">
+        <v>6</v>
+      </c>
+      <c r="AB66">
+        <v>6</v>
+      </c>
+      <c r="AC66">
+        <v>3</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36">
+      <c r="A67">
+        <v>90</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>-40</v>
+      </c>
+      <c r="S67">
+        <v>-10</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>25</v>
+      </c>
+      <c r="V67">
+        <v>14</v>
+      </c>
+      <c r="W67">
+        <v>400</v>
+      </c>
+      <c r="X67">
+        <v>1000</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>6</v>
+      </c>
+      <c r="AA67">
+        <v>6</v>
+      </c>
+      <c r="AB67">
+        <v>6</v>
+      </c>
+      <c r="AC67">
+        <v>3</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36">
+      <c r="A68">
+        <v>91</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>-40</v>
+      </c>
+      <c r="S68">
+        <v>-10</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>25</v>
+      </c>
+      <c r="V68">
+        <v>14</v>
+      </c>
+      <c r="W68">
+        <v>400</v>
+      </c>
+      <c r="X68">
+        <v>1000</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>6</v>
+      </c>
+      <c r="AA68">
+        <v>6</v>
+      </c>
+      <c r="AB68">
+        <v>6</v>
+      </c>
+      <c r="AC68">
+        <v>3</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36">
+      <c r="A69">
+        <v>92</v>
+      </c>
+      <c r="B69">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>-40</v>
+      </c>
+      <c r="S69">
+        <v>-10</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>25</v>
+      </c>
+      <c r="V69">
+        <v>14</v>
+      </c>
+      <c r="W69">
+        <v>400</v>
+      </c>
+      <c r="X69">
+        <v>1000</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>6</v>
+      </c>
+      <c r="AA69">
+        <v>6</v>
+      </c>
+      <c r="AB69">
+        <v>6</v>
+      </c>
+      <c r="AC69">
+        <v>3</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36">
+      <c r="A70">
+        <v>93</v>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>-40</v>
+      </c>
+      <c r="S70">
+        <v>-10</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>25</v>
+      </c>
+      <c r="V70">
+        <v>14</v>
+      </c>
+      <c r="W70">
+        <v>400</v>
+      </c>
+      <c r="X70">
+        <v>1000</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>6</v>
+      </c>
+      <c r="AA70">
+        <v>6</v>
+      </c>
+      <c r="AB70">
+        <v>6</v>
+      </c>
+      <c r="AC70">
+        <v>3</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36">
+      <c r="A71">
+        <v>94</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>-40</v>
+      </c>
+      <c r="S71">
+        <v>-10</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>25</v>
+      </c>
+      <c r="V71">
+        <v>14</v>
+      </c>
+      <c r="W71">
+        <v>400</v>
+      </c>
+      <c r="X71">
+        <v>1000</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>6</v>
+      </c>
+      <c r="AA71">
+        <v>6</v>
+      </c>
+      <c r="AB71">
+        <v>6</v>
+      </c>
+      <c r="AC71">
+        <v>3</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36">
+      <c r="A72">
         <v>95</v>
       </c>
-      <c r="C37">
-        <v>12</v>
-      </c>
-      <c r="D37">
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
         <v>8</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>34</v>
-      </c>
-      <c r="P37">
-        <v>43</v>
-      </c>
-      <c r="Q37">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>6</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>-40</v>
+      </c>
+      <c r="S72">
+        <v>-10</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>25</v>
+      </c>
+      <c r="V72">
         <v>14</v>
       </c>
-      <c r="R37">
-        <v>70</v>
-      </c>
-      <c r="S37">
+      <c r="W72">
+        <v>400</v>
+      </c>
+      <c r="X72">
         <v>1000</v>
       </c>
-      <c r="T37">
-        <v>27</v>
-      </c>
-      <c r="U37">
-        <v>17</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z37">
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
         <v>6</v>
       </c>
-      <c r="AA37">
+      <c r="AA72">
         <v>6</v>
       </c>
-      <c r="AB37">
+      <c r="AB72">
         <v>6</v>
       </c>
-      <c r="AC37">
+      <c r="AC72">
+        <v>3</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36">
+      <c r="A73">
+        <v>96</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>7</v>
+      </c>
+      <c r="N73">
         <v>2</v>
       </c>
-      <c r="AD37">
-        <v>5</v>
-      </c>
-      <c r="AE37">
-        <v>5</v>
-      </c>
-      <c r="AF37">
-        <v>5</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>39</v>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>-40</v>
+      </c>
+      <c r="S73">
+        <v>-10</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>25</v>
+      </c>
+      <c r="V73">
+        <v>14</v>
+      </c>
+      <c r="W73">
+        <v>400</v>
+      </c>
+      <c r="X73">
+        <v>1000</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>6</v>
+      </c>
+      <c r="AA73">
+        <v>6</v>
+      </c>
+      <c r="AB73">
+        <v>6</v>
+      </c>
+      <c r="AC73">
+        <v>3</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excelLineup.xlsx
+++ b/excelLineup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Lineup_Index</t>
   </si>
@@ -56,10 +56,28 @@
     <t>XIF_Matrix</t>
   </si>
   <si>
-    <t>XIFsw</t>
-  </si>
-  <si>
-    <t>FW.g_calib_if_gain_txrx_target</t>
+    <t>LO_Linup_Index</t>
+  </si>
+  <si>
+    <t>lo_mixer_ctrl</t>
+  </si>
+  <si>
+    <t>lo_rfc_ctrl</t>
+  </si>
+  <si>
+    <t>lo_xif_ctrl</t>
+  </si>
+  <si>
+    <t>Pin_Start</t>
+  </si>
+  <si>
+    <t>Pin_Stop</t>
+  </si>
+  <si>
+    <t>Pin_Delta</t>
+  </si>
+  <si>
+    <t>Target_RSSI</t>
   </si>
   <si>
     <t>MSC_table</t>
@@ -71,64 +89,52 @@
     <t>PacketLengthPayload</t>
   </si>
   <si>
-    <t>Dac_fssel_val</t>
-  </si>
-  <si>
-    <t>dig_atten</t>
-  </si>
-  <si>
-    <t>tx_gain_row</t>
-  </si>
-  <si>
-    <t>LO_Linup_Index</t>
-  </si>
-  <si>
-    <t>lo_mixer_ctrl</t>
-  </si>
-  <si>
-    <t>lo_rfc_ctrl</t>
-  </si>
-  <si>
-    <t>lo_xif_ctrl</t>
-  </si>
-  <si>
-    <t>tx_bypass_en</t>
-  </si>
-  <si>
-    <t>iftx_ctrl1_val</t>
-  </si>
-  <si>
-    <t>iftx_ctrl2_val</t>
-  </si>
-  <si>
-    <t>iftx_ctrl3_val</t>
-  </si>
-  <si>
-    <t>iftx_gain</t>
-  </si>
-  <si>
-    <t>iftx_stg1_val</t>
-  </si>
-  <si>
-    <t>iftx_stg2_val</t>
-  </si>
-  <si>
-    <t>iftx_stg3_val</t>
-  </si>
-  <si>
-    <t>if_mux_gain_val</t>
+    <t>ifrx_comm_gain_val</t>
+  </si>
+  <si>
+    <t>ifrx_comm1_val</t>
+  </si>
+  <si>
+    <t>ifrx_comm2_val</t>
+  </si>
+  <si>
+    <t>ifrx_comm3_val</t>
+  </si>
+  <si>
+    <t>ifmux_gain_val</t>
+  </si>
+  <si>
+    <t>ifmux_stg1_val</t>
+  </si>
+  <si>
+    <t>ifmux_stg2_val</t>
+  </si>
+  <si>
+    <t>ifmux_stg3_val</t>
+  </si>
+  <si>
+    <t>SAR_DCRemoval</t>
+  </si>
+  <si>
+    <t>DCRemoval</t>
+  </si>
+  <si>
+    <t>rx_bypass_en</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>"11111111"</t>
+    <t>TRUE</t>
   </si>
   <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>Ifcommon new3 direct</t>
+    <t>force mode_8dB_E</t>
+  </si>
+  <si>
+    <t>10(2+3)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +481,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,13 +587,16 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -599,495 +608,507 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R2">
+        <v>-40</v>
+      </c>
+      <c r="S2">
+        <v>-5</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>22</v>
+      </c>
+      <c r="V2">
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <v>400</v>
+      </c>
+      <c r="X2">
         <v>1000</v>
       </c>
-      <c r="S2">
-        <v>10</v>
-      </c>
-      <c r="T2">
-        <v>128</v>
-      </c>
-      <c r="U2">
-        <v>17</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
       <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>7</v>
       </c>
       <c r="AA2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>5</v>
-      </c>
-      <c r="AG2">
-        <v>5</v>
-      </c>
-      <c r="AH2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
       </c>
       <c r="AI2" t="s">
         <v>37</v>
       </c>
+      <c r="AJ2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
       <c r="O3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R3">
+        <v>-40</v>
+      </c>
+      <c r="S3">
+        <v>-5</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
+        <v>400</v>
+      </c>
+      <c r="X3">
         <v>1000</v>
       </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3">
-        <v>128</v>
-      </c>
-      <c r="U3">
-        <v>17</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
       <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>7</v>
       </c>
       <c r="AA3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>5</v>
-      </c>
-      <c r="AG3">
-        <v>5</v>
-      </c>
-      <c r="AH3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>36</v>
       </c>
       <c r="AI3" t="s">
         <v>37</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R4">
+        <v>-40</v>
+      </c>
+      <c r="S4">
+        <v>-5</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>22</v>
+      </c>
+      <c r="V4">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <v>400</v>
+      </c>
+      <c r="X4">
         <v>1000</v>
       </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
-      <c r="T4">
-        <v>128</v>
-      </c>
-      <c r="U4">
-        <v>17</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
       <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>7</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>5</v>
-      </c>
-      <c r="AG4">
-        <v>5</v>
-      </c>
-      <c r="AH4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>36</v>
       </c>
       <c r="AI4" t="s">
         <v>37</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:36">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R5">
+        <v>-40</v>
+      </c>
+      <c r="S5">
+        <v>-5</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>22</v>
+      </c>
+      <c r="V5">
+        <v>12</v>
+      </c>
+      <c r="W5">
+        <v>400</v>
+      </c>
+      <c r="X5">
         <v>1000</v>
       </c>
-      <c r="S5">
-        <v>10</v>
-      </c>
-      <c r="T5">
-        <v>128</v>
-      </c>
-      <c r="U5">
-        <v>17</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
       <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
       </c>
       <c r="AA5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>5</v>
-      </c>
-      <c r="AG5">
-        <v>5</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>36</v>
       </c>
       <c r="AI5" t="s">
         <v>37</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R6">
+        <v>-40</v>
+      </c>
+      <c r="S6">
+        <v>-5</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>22</v>
+      </c>
+      <c r="V6">
+        <v>12</v>
+      </c>
+      <c r="W6">
+        <v>400</v>
+      </c>
+      <c r="X6">
         <v>1000</v>
       </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
-        <v>128</v>
-      </c>
-      <c r="U6">
-        <v>17</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
       <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
       </c>
       <c r="AA6">
         <v>6</v>
@@ -1096,105 +1117,108 @@
         <v>6</v>
       </c>
       <c r="AC6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>5</v>
-      </c>
-      <c r="AG6">
-        <v>5</v>
-      </c>
-      <c r="AH6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>36</v>
       </c>
       <c r="AI6" t="s">
         <v>37</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R7">
+        <v>-40</v>
+      </c>
+      <c r="S7">
+        <v>-5</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>22</v>
+      </c>
+      <c r="V7">
+        <v>12</v>
+      </c>
+      <c r="W7">
+        <v>400</v>
+      </c>
+      <c r="X7">
         <v>1000</v>
       </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>128</v>
-      </c>
-      <c r="U7">
-        <v>17</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
       <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
       </c>
       <c r="AA7">
         <v>6</v>
@@ -1203,105 +1227,108 @@
         <v>6</v>
       </c>
       <c r="AC7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>5</v>
-      </c>
-      <c r="AG7">
-        <v>5</v>
-      </c>
-      <c r="AH7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>36</v>
       </c>
       <c r="AI7" t="s">
         <v>37</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R8">
+        <v>-40</v>
+      </c>
+      <c r="S8">
+        <v>-5</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>22</v>
+      </c>
+      <c r="V8">
+        <v>12</v>
+      </c>
+      <c r="W8">
+        <v>400</v>
+      </c>
+      <c r="X8">
         <v>1000</v>
       </c>
-      <c r="S8">
-        <v>10</v>
-      </c>
-      <c r="T8">
-        <v>128</v>
-      </c>
-      <c r="U8">
-        <v>17</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
       <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
       </c>
       <c r="AA8">
         <v>6</v>
@@ -1310,105 +1337,108 @@
         <v>6</v>
       </c>
       <c r="AC8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>5</v>
-      </c>
-      <c r="AG8">
-        <v>5</v>
-      </c>
-      <c r="AH8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>36</v>
       </c>
       <c r="AI8" t="s">
         <v>37</v>
       </c>
+      <c r="AJ8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R9">
+        <v>-40</v>
+      </c>
+      <c r="S9">
+        <v>-5</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>22</v>
+      </c>
+      <c r="V9">
+        <v>12</v>
+      </c>
+      <c r="W9">
+        <v>400</v>
+      </c>
+      <c r="X9">
         <v>1000</v>
       </c>
-      <c r="S9">
-        <v>10</v>
-      </c>
-      <c r="T9">
-        <v>128</v>
-      </c>
-      <c r="U9">
-        <v>17</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
       <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
       </c>
       <c r="AA9">
         <v>6</v>
@@ -1417,533 +1447,548 @@
         <v>6</v>
       </c>
       <c r="AC9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>5</v>
-      </c>
-      <c r="AG9">
-        <v>5</v>
-      </c>
-      <c r="AH9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>36</v>
       </c>
       <c r="AI9" t="s">
         <v>37</v>
       </c>
+      <c r="AJ9" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>10</v>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>-40</v>
+      </c>
+      <c r="S10">
+        <v>-5</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
         <v>14</v>
       </c>
-      <c r="Q10">
-        <v>70</v>
-      </c>
-      <c r="R10">
+      <c r="W10">
+        <v>400</v>
+      </c>
+      <c r="X10">
         <v>1000</v>
       </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-      <c r="T10">
-        <v>128</v>
-      </c>
-      <c r="U10">
-        <v>17</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
       <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>7</v>
       </c>
       <c r="AA10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>5</v>
-      </c>
-      <c r="AG10">
-        <v>5</v>
-      </c>
-      <c r="AH10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>36</v>
       </c>
       <c r="AI10" t="s">
         <v>37</v>
       </c>
+      <c r="AJ10" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R11">
+        <v>-40</v>
+      </c>
+      <c r="S11">
+        <v>-5</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>400</v>
+      </c>
+      <c r="X11">
         <v>1000</v>
       </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>128</v>
-      </c>
-      <c r="U11">
-        <v>17</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
       <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
       </c>
       <c r="AA11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>5</v>
-      </c>
-      <c r="AG11">
-        <v>5</v>
-      </c>
-      <c r="AH11">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>36</v>
       </c>
       <c r="AI11" t="s">
         <v>37</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:36">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
       <c r="O12">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>-40</v>
+      </c>
+      <c r="S12">
+        <v>-5</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>14</v>
+      </c>
+      <c r="W12">
+        <v>400</v>
+      </c>
+      <c r="X12">
         <v>1000</v>
       </c>
-      <c r="S12">
-        <v>10</v>
-      </c>
-      <c r="T12">
-        <v>128</v>
-      </c>
-      <c r="U12">
-        <v>17</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
       <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
       </c>
       <c r="AA12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>5</v>
-      </c>
-      <c r="AG12">
-        <v>5</v>
-      </c>
-      <c r="AH12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>36</v>
       </c>
       <c r="AI12" t="s">
         <v>37</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:36">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-30</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>3</v>
+      <c r="D13" t="s">
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R13">
+        <v>-40</v>
+      </c>
+      <c r="S13">
+        <v>-5</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>400</v>
+      </c>
+      <c r="X13">
         <v>1000</v>
       </c>
-      <c r="S13">
-        <v>10</v>
-      </c>
-      <c r="T13">
-        <v>128</v>
-      </c>
-      <c r="U13">
-        <v>17</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
       <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
       </c>
       <c r="AA13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>5</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AH13">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>36</v>
       </c>
       <c r="AI13" t="s">
         <v>37</v>
       </c>
+      <c r="AJ13" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:36">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R14">
+        <v>-40</v>
+      </c>
+      <c r="S14">
+        <v>-5</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>22</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <v>400</v>
+      </c>
+      <c r="X14">
         <v>1000</v>
       </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
-      <c r="T14">
-        <v>128</v>
-      </c>
-      <c r="U14">
-        <v>17</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
       <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
       </c>
       <c r="AA14">
         <v>6</v>
@@ -1952,105 +1997,108 @@
         <v>6</v>
       </c>
       <c r="AC14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>5</v>
-      </c>
-      <c r="AG14">
-        <v>5</v>
-      </c>
-      <c r="AH14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>36</v>
       </c>
       <c r="AI14" t="s">
         <v>37</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:36">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R15">
+        <v>-40</v>
+      </c>
+      <c r="S15">
+        <v>-5</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>22</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>400</v>
+      </c>
+      <c r="X15">
         <v>1000</v>
       </c>
-      <c r="S15">
-        <v>10</v>
-      </c>
-      <c r="T15">
-        <v>128</v>
-      </c>
-      <c r="U15">
-        <v>17</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
       <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
       </c>
       <c r="AA15">
         <v>6</v>
@@ -2059,105 +2107,108 @@
         <v>6</v>
       </c>
       <c r="AC15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>5</v>
-      </c>
-      <c r="AG15">
-        <v>5</v>
-      </c>
-      <c r="AH15">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>36</v>
       </c>
       <c r="AI15" t="s">
         <v>37</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R16">
+        <v>-40</v>
+      </c>
+      <c r="S16">
+        <v>-5</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>22</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>400</v>
+      </c>
+      <c r="X16">
         <v>1000</v>
       </c>
-      <c r="S16">
-        <v>10</v>
-      </c>
-      <c r="T16">
-        <v>128</v>
-      </c>
-      <c r="U16">
-        <v>17</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
       <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
       </c>
       <c r="AA16">
         <v>6</v>
@@ -2166,105 +2217,108 @@
         <v>6</v>
       </c>
       <c r="AC16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>5</v>
-      </c>
-      <c r="AG16">
-        <v>5</v>
-      </c>
-      <c r="AH16">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>36</v>
       </c>
       <c r="AI16" t="s">
         <v>37</v>
       </c>
+      <c r="AJ16" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="C17">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R17">
+        <v>-40</v>
+      </c>
+      <c r="S17">
+        <v>-5</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>22</v>
+      </c>
+      <c r="V17">
+        <v>12</v>
+      </c>
+      <c r="W17">
+        <v>400</v>
+      </c>
+      <c r="X17">
         <v>1000</v>
       </c>
-      <c r="S17">
-        <v>10</v>
-      </c>
-      <c r="T17">
-        <v>128</v>
-      </c>
-      <c r="U17">
-        <v>17</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
       <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
       </c>
       <c r="AA17">
         <v>6</v>
@@ -2273,105 +2327,108 @@
         <v>6</v>
       </c>
       <c r="AC17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>5</v>
-      </c>
-      <c r="AG17">
-        <v>5</v>
-      </c>
-      <c r="AH17">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>36</v>
       </c>
       <c r="AI17" t="s">
         <v>37</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:36">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R18">
+        <v>-40</v>
+      </c>
+      <c r="S18">
+        <v>-5</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>22</v>
+      </c>
+      <c r="V18">
+        <v>12</v>
+      </c>
+      <c r="W18">
+        <v>400</v>
+      </c>
+      <c r="X18">
         <v>1000</v>
       </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
-      <c r="T18">
-        <v>128</v>
-      </c>
-      <c r="U18">
-        <v>17</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
       <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
       </c>
       <c r="AA18">
         <v>6</v>
@@ -2380,105 +2437,108 @@
         <v>6</v>
       </c>
       <c r="AC18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>5</v>
-      </c>
-      <c r="AG18">
-        <v>5</v>
-      </c>
-      <c r="AH18">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>36</v>
       </c>
       <c r="AI18" t="s">
         <v>37</v>
       </c>
+      <c r="AJ18" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R19">
+        <v>-40</v>
+      </c>
+      <c r="S19">
+        <v>-5</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>22</v>
+      </c>
+      <c r="V19">
+        <v>12</v>
+      </c>
+      <c r="W19">
+        <v>400</v>
+      </c>
+      <c r="X19">
         <v>1000</v>
       </c>
-      <c r="S19">
-        <v>10</v>
-      </c>
-      <c r="T19">
-        <v>128</v>
-      </c>
-      <c r="U19">
-        <v>17</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
       <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>6</v>
@@ -2487,105 +2547,108 @@
         <v>6</v>
       </c>
       <c r="AC19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>5</v>
-      </c>
-      <c r="AG19">
-        <v>5</v>
-      </c>
-      <c r="AH19">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>36</v>
       </c>
       <c r="AI19" t="s">
         <v>37</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C20">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R20">
+        <v>-40</v>
+      </c>
+      <c r="S20">
+        <v>-5</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>22</v>
+      </c>
+      <c r="V20">
+        <v>12</v>
+      </c>
+      <c r="W20">
+        <v>400</v>
+      </c>
+      <c r="X20">
         <v>1000</v>
       </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
-      <c r="T20">
-        <v>128</v>
-      </c>
-      <c r="U20">
-        <v>17</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
       <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>6</v>
       </c>
       <c r="AA20">
         <v>6</v>
@@ -2594,105 +2657,108 @@
         <v>6</v>
       </c>
       <c r="AC20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>5</v>
-      </c>
-      <c r="AG20">
-        <v>5</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>36</v>
       </c>
       <c r="AI20" t="s">
         <v>37</v>
       </c>
+      <c r="AJ20" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>35</v>
-      </c>
       <c r="O21">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>-40</v>
+      </c>
+      <c r="S21">
+        <v>-5</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>22</v>
+      </c>
+      <c r="V21">
+        <v>12</v>
+      </c>
+      <c r="W21">
+        <v>400</v>
+      </c>
+      <c r="X21">
         <v>1000</v>
       </c>
-      <c r="S21">
-        <v>10</v>
-      </c>
-      <c r="T21">
-        <v>128</v>
-      </c>
-      <c r="U21">
-        <v>17</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
       <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
       </c>
       <c r="AA21">
         <v>6</v>
@@ -2701,105 +2767,108 @@
         <v>6</v>
       </c>
       <c r="AC21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>5</v>
-      </c>
-      <c r="AG21">
-        <v>5</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>36</v>
       </c>
       <c r="AI21" t="s">
         <v>37</v>
       </c>
+      <c r="AJ21" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C22">
         <v>12</v>
       </c>
-      <c r="D22">
-        <v>3</v>
+      <c r="D22" t="s">
+        <v>39</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R22">
+        <v>-40</v>
+      </c>
+      <c r="S22">
+        <v>-5</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>25</v>
+      </c>
+      <c r="V22">
+        <v>14</v>
+      </c>
+      <c r="W22">
+        <v>400</v>
+      </c>
+      <c r="X22">
         <v>1000</v>
       </c>
-      <c r="S22">
-        <v>10</v>
-      </c>
-      <c r="T22">
-        <v>128</v>
-      </c>
-      <c r="U22">
-        <v>17</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
       <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>6</v>
       </c>
       <c r="AA22">
         <v>6</v>
@@ -2808,105 +2877,108 @@
         <v>6</v>
       </c>
       <c r="AC22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>5</v>
-      </c>
-      <c r="AG22">
-        <v>5</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>36</v>
       </c>
       <c r="AI22" t="s">
         <v>37</v>
       </c>
+      <c r="AJ22" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
-      <c r="D23">
-        <v>4</v>
+      <c r="D23" t="s">
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R23">
+        <v>-40</v>
+      </c>
+      <c r="S23">
+        <v>-5</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>25</v>
+      </c>
+      <c r="V23">
+        <v>14</v>
+      </c>
+      <c r="W23">
+        <v>400</v>
+      </c>
+      <c r="X23">
         <v>1000</v>
       </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>128</v>
-      </c>
-      <c r="U23">
-        <v>17</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
       <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
       </c>
       <c r="AA23">
         <v>6</v>
@@ -2915,105 +2987,108 @@
         <v>6</v>
       </c>
       <c r="AC23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF23">
-        <v>5</v>
-      </c>
-      <c r="AG23">
-        <v>5</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>36</v>
       </c>
       <c r="AI23" t="s">
         <v>37</v>
       </c>
+      <c r="AJ23" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24">
-        <v>5</v>
+      <c r="D24" t="s">
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R24">
+        <v>-40</v>
+      </c>
+      <c r="S24">
+        <v>-5</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>25</v>
+      </c>
+      <c r="V24">
+        <v>14</v>
+      </c>
+      <c r="W24">
+        <v>400</v>
+      </c>
+      <c r="X24">
         <v>1000</v>
       </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
-      <c r="T24">
-        <v>128</v>
-      </c>
-      <c r="U24">
-        <v>17</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
       <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
       </c>
       <c r="AA24">
         <v>6</v>
@@ -3022,105 +3097,108 @@
         <v>6</v>
       </c>
       <c r="AC24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>5</v>
-      </c>
-      <c r="AG24">
-        <v>5</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>36</v>
       </c>
       <c r="AI24" t="s">
         <v>37</v>
       </c>
+      <c r="AJ24" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>-40</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>7</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>35</v>
+      <c r="N25">
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>-40</v>
+      </c>
+      <c r="S25">
+        <v>-5</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>25</v>
+      </c>
+      <c r="V25">
         <v>14</v>
       </c>
-      <c r="Q25">
-        <v>70</v>
-      </c>
-      <c r="R25">
+      <c r="W25">
+        <v>400</v>
+      </c>
+      <c r="X25">
         <v>1000</v>
       </c>
-      <c r="S25">
-        <v>10</v>
-      </c>
-      <c r="T25">
-        <v>128</v>
-      </c>
-      <c r="U25">
-        <v>17</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
       <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
       </c>
       <c r="AA25">
         <v>6</v>
@@ -3129,346 +3207,28 @@
         <v>6</v>
       </c>
       <c r="AC25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF25">
-        <v>5</v>
-      </c>
-      <c r="AG25">
-        <v>5</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>36</v>
       </c>
       <c r="AI25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>95</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26">
-        <v>43</v>
-      </c>
-      <c r="P26">
-        <v>14</v>
-      </c>
-      <c r="Q26">
-        <v>70</v>
-      </c>
-      <c r="R26">
-        <v>1000</v>
-      </c>
-      <c r="S26">
-        <v>10</v>
-      </c>
-      <c r="T26">
-        <v>128</v>
-      </c>
-      <c r="U26">
-        <v>17</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA26">
-        <v>6</v>
-      </c>
-      <c r="AB26">
-        <v>6</v>
-      </c>
-      <c r="AC26">
-        <v>6</v>
-      </c>
-      <c r="AD26">
-        <v>2</v>
-      </c>
-      <c r="AE26">
-        <v>5</v>
-      </c>
-      <c r="AF26">
-        <v>5</v>
-      </c>
-      <c r="AG26">
-        <v>5</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>95</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27">
-        <v>43</v>
-      </c>
-      <c r="P27">
-        <v>14</v>
-      </c>
-      <c r="Q27">
-        <v>70</v>
-      </c>
-      <c r="R27">
-        <v>1000</v>
-      </c>
-      <c r="S27">
-        <v>10</v>
-      </c>
-      <c r="T27">
-        <v>128</v>
-      </c>
-      <c r="U27">
-        <v>17</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA27">
-        <v>6</v>
-      </c>
-      <c r="AB27">
-        <v>6</v>
-      </c>
-      <c r="AC27">
-        <v>6</v>
-      </c>
-      <c r="AD27">
-        <v>2</v>
-      </c>
-      <c r="AE27">
-        <v>5</v>
-      </c>
-      <c r="AF27">
-        <v>5</v>
-      </c>
-      <c r="AG27">
-        <v>5</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>95</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28">
-        <v>43</v>
-      </c>
-      <c r="P28">
-        <v>14</v>
-      </c>
-      <c r="Q28">
-        <v>70</v>
-      </c>
-      <c r="R28">
-        <v>1000</v>
-      </c>
-      <c r="S28">
-        <v>10</v>
-      </c>
-      <c r="T28">
-        <v>128</v>
-      </c>
-      <c r="U28">
-        <v>17</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA28">
-        <v>6</v>
-      </c>
-      <c r="AB28">
-        <v>6</v>
-      </c>
-      <c r="AC28">
-        <v>6</v>
-      </c>
-      <c r="AD28">
-        <v>2</v>
-      </c>
-      <c r="AE28">
-        <v>5</v>
-      </c>
-      <c r="AF28">
-        <v>5</v>
-      </c>
-      <c r="AG28">
-        <v>5</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>37</v>
+      <c r="AJ25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
